--- a/500all/speech_level/speeches_CHRG-114hhrg93962.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93962.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="350">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,42 +52,24 @@
     <t>400263</t>
   </si>
   <si>
-    <t>James P. McGovern</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McGovern. Thank you very much, Chairwoman Walorski, for holding today's hearing, and thank you to the witnesses for being with us. I look forward to your testimony. This is our seventh hearing on SNAP, and I still have a lot of questions as to where all this is headed. We are told that the purpose of all these hearings is to make SNAP better. No program is perfect. There is always room for improvement. But I worry that, for some of my colleagues, improvement is code for cuts. It makes me nervous that we are going down a path that I worry could actually make hunger worse in this country.    In past hearings we have heard a lot about case management. Well, I am all for case management, but show me the money. Case management is expensive, and no one's talking about increasing SNAP funding to pay for it. We shouldn't take money away from the food benefit to pay for case management. We shouldn't rob Peter to pay Paul. Likewise, we have heard a lot about work requirements, but SNAP is not a jobs program. It is a food program. If my friends who are critics of this program want to talk about jobs, then we should talk about how our job training programs are woefully under-funded. There seems to be little appetite to provide more money there too.    Today's hearing is about SNAP and evidence. Well, let us look at the evidence. According to USDA data, SNAP enrollment is at the lowest level it has been in nearly 4 years. SNAP caseloads are coming down from their peak in the middle of one of the country's worst recessions, and they are expected to continue to decline. That is how the program is designed to work, and it is working. We also have evidence from Children's HealthWatch that receiving SNAP is associated with important health outcomes for children. Children whose families received SNAP were less likely to be food insecure, less likely to be underweight, and less likely to be at risk of developmental delays. If we are talking about investing in our future, I can't think of a better investment than making sure that our kids have enough to eat.    One of the things that frustrates me a little bit about some of the hearings that we have had is that we haven't heard directly from anybody at the Food and Nutrition Service at USDA, those directly responsible for administering SNAP. I understand FNS has a whole team doing research on evidence-based outcomes on SNAP. It would seem to me that we should be hearing from them directly.    And if we are focusing on evidence, we should look at the body of evidence that shows the SNAP benefit is too low, that people run out of money to pay for groceries mid-month and have to turn to food pantries and food banks to feed them through the end of the month. We should be looking at the evidence that shows that more and more seniors are experiencing hunger. Seniors are the population with the most number of folks who are eligible for SNAP, but who aren't enrolled. Why is that? Is it because they don't know that they are eligible? Is it that they are ashamed to ask for help? We should be examining those issues more closely, and we also ought to be looking at hunger among our veterans. These are the men and women who bravely fought for our country, and I don't think we are doing enough to support them. They and their families have sacrificed a great deal.    Today's hearing is about evidence, and the evidence shows us that SNAP works. SNAP is helping millions of struggling families around the county put food on the table, and as this economy improves, more and more people are getting back on their feet, and off of SNAP. SNAP is working, and my hope is that this Committee will look for ways to strengthen it so that we can continue to give families a hand up when they need it. I yield back my time.    The Chairwoman. Thank you, Mr. McGovern. The chair would request that other Members submit their opening statements so the witnesses may begin their testimony, and to ensure there is ample time for questions.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Conaway</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Conaway. Well, thank you, gentlelady. It is my pleasure to introduce Jeremy Everett. Jeremy's dad and I are good friends. Jeremy's the founding Director of the Texas Hunger Initiative at Baylor University. Under his leadership, THI thinks outside the box to develop and implement true public-private partnerships with all levels of government and types of community-based organizations to reduce hunger in Texas and beyond. He is also in town this week because he is currently serving on the National Commission on Hunger, which was created by Congress in 2014. I have heard that they had a great hearing yesterday, and that we look forward to recommendations from that effort later in the year.    Jeremy has been doing important research-based work in this space for a long time, and we are honored to have him here today. And, in spite of what our Ranking Member said about who else he wanted to hear from, we are excited about hearing from these witnesses today, because they are the ones that are the experts. And with that, I yield back.    The Chairwoman. Thank you, Mr. Chairman. Mr. Baron, please begin your testimony when you are ready.</t>
   </si>
   <si>
-    <t>Baron</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Baron. Chairwoman Walorski, Ranking Member McGovern, and Members of the Subcommittee, I appreciate the opportunity to testify regarding evidence-based solutions in the Supplemental Nutrition Assistance Program, or SNAP Program. I am testifying on behalf of the Laura and John Arnold Foundation. My testimony will first discuss how evidence-based reforms and other entitlement programs, such as welfare and Unemployment Insurance, have identified several highly effective strategies for increasing participants' success in finding employment, while simultaneously reducing government spending. Then I will offer some concrete ideas for advancing similar reforms within SNAP.    In welfare policy in the 1980s and 1990s a large number of randomized control trials of state and local welfare-to-work programs were conducted across the United States. Such studies are widely considered the gold standard method of evaluating program effectiveness, and this was the first time that such rigorous randomized methods were deployed on a large scale in social spending instead of the usual evaluation methods, which often produce much less reliable answers.    Some of the welfare studies found modest effects. Some of them found no effects. But one trial in Riverside County, California in the late 1980s of a work-focused welfare-to-work program was a blockbuster. The program was found to increase employment and earnings by 40 percent over 5 years for single parent long-term welfare recipients, compared to the control group, and to produce net savings to the taxpayer of over $20 million county-wide by reducing participants use of welfare and food stamps.    Around the same time, a different randomized controlled trial in Los Angeles, of their welfare-to-work program, which provided remedial education to welfare recipients, found no meaningful effects. Based on these findings, Los Angeles scrapped its program, borrowed the key elements of the Work First Riverside model, and implemented it county-wide in Los Angeles County. When the Los Angeles Program was tested in a subsequent randomized control trial, it was found, lo and behold--also to produce impressive effects--about a 25 percent increase in employment and earnings, and net savings to the taxpayer of about $30 million.    Riverside, and Los Angeles, and several similar studies that followed had a major influence on national welfare policy, helping to build the political consensus for the work requirements in the 1996 Welfare Reform Act. In my written testimony I describe a randomized trial in a different entitlement program, Unemployment Insurance, UI, that has recently identified a highly effective strategy developed by the State of Nevada for assisting UI claimants to find employment.    Now, in SNAP, building similar evidence-based solutions that produce important improvements in participants' lives is possible. The Agriculture Department's ten state pilot program that you referred to, Madam Chairman, is a valuable step, and it was great to see that that program is using randomized trials to evaluate the ten different state pilots. But to build a body of proven effective strategies within SNAP, as in welfare, will require a much larger effort, and specifically strategic trial and error. In other words, rigorously testing many promising reforms to identify the few that are effective.    The instances of effectiveness that I just described in welfare and UI are exceptions that have emerged from testing a much larger pool of strategies. More generally, most innovations, typically 80 to 90 percent, are found to produce weak or no positive effects when rigorously evaluated, a pattern that occurs not just in social spending, but in other fields where randomized trials have been carried out, including medicine and business.    Now, my written testimony offers several concrete suggestions to greatly accelerate the rate of innovation and rigorous evaluation in SNAP, and to do it in a cost-effective way. First, we suggest that the Federal Government incentivize states to use their existing funds for SNAP employment and training to rigorously evaluate new employment and training strategies. One important incentive, similar to what was done in welfare would be to allow states to share in any budget savings that result from an employment and training strategy that is demonstrated through a rigorous evaluation to be effective. Another incentive, also used in welfare, would be for the Federal Government to fund \\1/2\\ the cost of these state level evaluations, with states funding the other \\1/2\\.    Our second main recommendation, designed to maximize the number of strategies that can be evaluated within a given budget, would be to use low cost randomized trials as a main evaluation method, and my written testimony describes how such methods are increasingly possible in social spending by using administrative data to measure the outcomes.    In conclusion, there is every reason to believe that, with robust state level innovation and rigorous evaluation in SNAP, we can succeed in identifying highly effective strategies for increasing workforce success and self-sufficiency of program participants.</t>
   </si>
   <si>
-    <t>Weill</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Weill. Chairwoman Walorski, Ranking Member McGovern, Members of the Subcommittee, thank you for the opportunity to testify this afternoon. I am Jim Weill. I am President of the Food Research and Action Center, commonly known as FRAC. For 45 years FRAC has worked to implement and strengthen SNAP and other nutrition and anti-poverty programs in order to reduce hunger and improve nutrition and well-being. My written testimony details the very extensive body of evidence that already shows how successful SNAP is in reducing hunger, malnutrition, and poverty, and improving child and adult health, and other outcomes. And it points out that these outcomes would be at deep risk if the program were weakened, or subjected to demonstration projects based on misconceptions or stereotypes.    The key purposes of SNAP, defined in the statute, are to address hunger among low-income households that suffer from limited purchasing power, to assist those households in obtaining a more nutritious diet, to bolster normal channels of trade, and to strengthen the agricultural economy. The first set of research findings, summarized in my written testimony, is that SNAP is fulfilling these core purposes, and in particular it boosts food purchasing power for needy Americans, and thereby reduces significantly the prevalence of food insecurity and malnutrition. By doing so, the research shows, SNAP produces important positive effects on health, on mental health, on child development, on employability, and on other desirable outcomes. The positive impacts on child health are particularly notable, and those effects can be long lasting. For example, a recent compelling report says that the exposure to SNAP in utero, or in early childhood, reduces the incidence of metabolic syndrome in adulthood, and reduces obesity, hypertension, diabetes, and heart disease.    SNAP and its impacts, moreover, reach a very broad and diverse population of rural, urban, and suburban people in need: 70 percent of recipients live in households with minor children, 11 percent in households with seniors, 18 percent in households with people with disabilities. Many beneficiaries are struggling veterans. And in many ways the program has become a work support program. When the adults in the household are not seniors, or persons with disabilities, they typically are working, albeit at low wages, or are very recently unemployed. Among SNAP households with at least one working age adult not receiving disability benefits, more than \\1/2\\ have a member who works while receiving SNAP, and more than 80 percent work either in the year prior or the year after receiving SNAP. These rates are even higher for SNAP households with children. And, as we have learned most profoundly in the Great Recession, SNAP is very responsive to national or local economic downturns.    SNAP not only reduces hunger, it alleviates poverty and supports family economic stability. According to one new analysis, SNAP lifted ten million people above the poverty line in 2012. Exposure to SNAP in early childhood increases women's economic self-sufficiency, with greater high school graduation rates, higher earnings, and lower rates of welfare received in adulthood.    There is one serious SNAP shortcoming, and that is its inadequate benefit levels. But the nation has just run a large natural experiment with more adequate SNAP benefits, and the early research shows that it worked. The American Recovery and Reinvestment Act began an increase in benefits in April 2009, a boost that was cut off in late 2013. While it was in effect, research shows, the boost reduced food insecurity and improved the health of young children. But there needs to be more extensive research on the impact of the boost on food insecurity and health. It is disconcerting how little interest there has been about this in the research community.    And finally I will just summarize quickly some examples from my written testimony of recent policy changes, Federal and state, that should be evaluated for their impact on hunger and on SNAP's effectiveness. Last year's farm bill created pilots to provide incentives for SNAP consumers' purchases of fruit and vegetables. As Mr. Baron indicated, the farm bill also created a substantial demonstration project for ten states' innovative employment and training strategies. The improvements made last year in the Federal child care program also should be evaluated to see if more work--supporting child care will lead to higher rates of food security, as well as less joblessness; and the President's proposal to help states streamline SNAP processes for seniors could provide evidence of ways to improve the far too low senior SNAP participation rate, and thereby lower their food insecurity and health costs. And last, as more states adopt higher state minimum wages, while the Federal minimum wage and other states are lagging behind, that provides a natural opportunity to examine the evidence that higher minimum wages can be a significant solution to food insecurity, and also bring down SNAP participation rates.    So, in conclusion, SNAP is fundamentally sound and successful. There are ways to make it even better. Indeed, there is already a body of research on this that I haven't been able to do full justice to today, but I hope the Subcommittee will explore that existing body of research, and where it leads, further.</t>
   </si>
   <si>
-    <t>Sullivan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Sullivan. Chairwoman Walorski, Ranking Member McGovern, and other Members of the Subcommittee, thank you for inviting me to participate in today's hearing. I am talking to you today because the impact of social programs has been the focus of much of my academic research, and recently I co-founded the Wilson Sheehan Lab for Economic Opportunities, a research center at the University of Notre Dame that implements impact evaluations to identify innovative, effective, and scalable programs that help the disadvantaged move to self-sufficiency. We work with some of the largest private providers of services to the poor in the country, such as the Catholic Charities Network, as well as state and local agencies. While these front line providers are driven by compassion and motivation for helping the poor, most of them design and launch programs without solid evidence of effectiveness. The same could be said of many national programs, most of which are not evaluated, or are evaluated with unreliable methods.    One of the greatest advances in the social sciences in recent decades is the development and application of methods that allow us to determine whether social programs are having their intended effect. The gold standard of these approaches is the randomized controlled trial. Nowadays gathering evidence is commonplace in many sectors. The medical profession runs tens of thousands of experiments each year to test the effectiveness of new interventions. These experiments have led to vast improvements in health care all across the globe. Shouldn't the same commitment to proven effectiveness apply to our social programs? Using evidence to steer resources towards the most effective programs would allow us to do more good with the limited resources available.    Despite its size and importance, there is little hard evidence of the impact of SNAP. There is some promising quasi-experimental evidence showing that in utero exposure to the food stamp program is associated with increased birth weight and lower rates of obesity and heart disease in adulthood. But this evidence is for those exposed to food stamps in the late 1960s and early 1970s. There is a clear need for rigorous experimental evidence of the impact of SNAP in its current form.    Evaluating SNAP can be challenging, given its structure. It is much easier to conduct experiments when a program is rolled out, expanded, or changed in significant ways, or when the program is not made available to all those who might be eligible. SNAP is an entitlement program that has been around for more than 5 decades, and there has been relatively little experimentation with program rules. I applaud this Subcommittee's efforts to generate more evidence to guide the future of nutrition policy. There are a number of strategies that can help develop a strong base of evidence and improve policy. Let me highlight just a few.    First, policymakers should incentivize innovation. Programs can't be built on evidence of effectiveness if there is no evidence. The most innovative ideas for social programs frequently come from states and local providers, but they need funds to experiment with new ideas. The most recent farm bill made important strides towards encouraging innovation by authorizing $200 million to support pilot projects designed and implemented by state agencies to reduce SNAP dependency and encourage work. These grants create a pipeline of innovative programs that, if proven effective, can be scaled up to ensure broad impact.    Second, the program needs to be rigorously evaluated, otherwise there is no way to know whether the program is being implemented correctly, and having its intended effect. If a funding agency does require an evaluation, it often does not require the evaluation to employ the best experimental or quasi-experimental methods possible, which limits the extent to which this evidence can shape future policy.    Third, researchers need greater access to administrative data. Collecting survey data for an evaluation can be an expensive proposition. In many instances, administrative records already collect information on key outcomes, such as employment, earnings, program participation, and many others. But these data are often not available for evaluation purposes. Some cities and states have established administrative data repositories that can be used for evaluation, but there needs to be a national effort. The Ryan-Murray Act represents an excellent step towards greater access to data. This legislation would create a commission to study how administrative data might be compiled in order to facilitate research and evaluation. This would make possible countless studies of government programs, resulting in the design of more effective policies.    Advances in technology and data collection have greatly expanded opportunities to implement high quality evaluation of social programs. By encouraging innovation and evaluation, and by targeting support at interventions shown to be successful, policymakers will ensure that our social programs are more effective at helping vulnerable populations get ahead. We at the Wilson Sheehan Lab welcome this transformation in the way we fight poverty in America. Thank you.</t>
   </si>
   <si>
-    <t>Everett</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Everett. Thank you, Chairwoman Walorski, Ranking Member McGovern, and Members of the Subcommittee on Nutrition for the opportunity to speak before you today. My name is Jeremy Everett. I am the Director of the Texas Hunger Initiative at Baylor University. THI is a collaborative capacity building project that develops and implements strategies to end hunger through research, policy, and community engagement. Headquartered at Baylor University, with 12 regional offices across the state, THI convenes Federal, state, and local government stakeholders with nonprofits, faith communities, and business leaders to create an efficient system of accountability that increases food security, and is an evidence-based collaborative model, a model we call informed engagement.    Informed engagement is a cyclical process of research informing on the ground strategy, and subsequently on the ground strategy informing research. This process leads to evidence-based solutions that have the potential to make Federal nutrition programs more efficient for the state, and more impactful for low-income Americans. Our work within local communities across the state is guided by three core assumptions. First, hunger and poverty are too complex for sectors to address independently of one another. Second, public and private partnerships are an effective means for coordinating access to SNAP and other Federal nutrition programs within a larger continuum of care. And third, research and evaluation provide a foundation for practical evidence-based solutions.    Assumption one, hunger and poverty are too complex for sectors to address independently of one another. When the Texas Hunger Initiative began in 2009, we identified thousands of organizations working tirelessly to address food security in Texas, however, there were still more than five million Texans living in food insecure households. A big reason for this is they were not coordinating with each other. We realized that our first priority needed to be building public and private partnerships.    Assumption two is that public and private partnerships are an effective means for coordinating access to SNAP and other Federal nutrition programs within a larger continuum of care. In congruence with Baylor's aspiration of informed engagement, THI, and its partners across the State of Texas, are fostering public and private partnerships to maximize the efficiency of nutrition programs and develop local solutions to address hunger. Public and private partnerships are collaborations among state agencies and local organizations that bridge local, state, and Federal resources to maximize the efficiency of programs, while increasing community ownership.    Our third assumption, research and evaluation provide a foundation for practical evidence-based solutions. As a part of the informed engagement process, our work building public and private partnerships are continuously evaluated. Being at a university, we are in a unique position to engage in research and evaluation that is both collaborative and actionable. Every project we engage in is informed by existing research on food security, and evaluated by a research team.    Because community-based initiatives are innovative, and often in a continuous state of development. We utilize the aspects of developmental evaluation. Our goal is to make sure that our programmatic decisions are informed by research and evaluation, and that research and evaluation are informed by what we are doing programmatically. When public and private partnerships are carefully informed by research and evaluation, stronger networks are likely formed between clients and local organizations, thus building a foundation for increased social capital for low-income families.    Social capital, a measure of trust, and reciprocity in social networks, is positively associated with household food security independent of household level socioeconomic factors. Thus social capital is a compliment to anti-hunger and anti-poverty programs because it strengthens the assets and resources that exist within disadvantaged communities. Stronger networks, social capital, and Federal nutrition programs are all important components for building food security.    Our efforts at the Texas Hunger Initiative demonstrate informed engagement, and are building a foundation for evidence-based solutions. We believe that allocating resources to the Hunger Free Communities line in the farm bill will expand the capacity of informed engagement in public and private partnerships, resulting in greater local coordination, strengthened social networks for low-income Americans. And when public and private partnerships are carefully informed by research and evaluation, stronger networks are likely formed between clients and local organizations, thus building a foundation for increased social capital for low-income families.    We believe that this has the potential to reduce the need for long-term Federal assistance. When we invest in these efforts and build them up on scalable, evidence-based solutions, we exhibit both the willpower and the know-how to build public and private infrastructure to strengthen families and build communities. Thank you.</t>
   </si>
   <si>
@@ -127,9 +109,6 @@
     <t>412630</t>
   </si>
   <si>
-    <t>Ralph Lee Abraham</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Abraham. Thank you, Madam Chair. What we have been talking about today is more than just counting the number of people receiving the benefits, which would seem like it could be very expensive. Dr. Sullivan, you mentioned in your testimony that better administrative data might be a solution. Can you expand on that a little bit?</t>
   </si>
   <si>
@@ -157,7 +136,7 @@
     <t xml:space="preserve">    Mr. Abraham. Thank you. Madam Chair, I yield back.    The Chairwoman. I now recognize Ms. DelBene.</t>
   </si>
   <si>
-    <t>Delbene</t>
+    <t>412505</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Delbene. Thank you, Madam Chair, and thanks to all of you for being here with us today. Many of you have talked about the efforts of finding and using evidence in the SNAP Program, and in my State of Washington, we have already developed a number of effective strategies to help families achieve self-sufficiency. Washington's employment and training program has helped over 11,000 people find jobs, and in one study less than \\1/2\\ of those enrolled in the program remain on government assistance 2 years after they enrolled. So Washington's program has been a model, and we used it as a model to help create the ten employment and training pilots that were in the farm bill.    I was wondering, Mr. Weill, if you can explain further how employment and training programs might be able to help us develop further strategies to help expand opportunity, and make sure that we reduce hunger at the same time.</t>
@@ -184,9 +163,6 @@
     <t>412525</t>
   </si>
   <si>
-    <t>Ted S. Yoho</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Yoho. Thank you, Madam Chairman. I appreciate you all being here to discuss this so we can reform the nutrition program so we get the best benefit for the end-user, and that the American taxpayers' dollars go to wise use.    Mr. Weill, you just said that the studies determined that SNAP has decreased food insecurity. I think I just heard you say that?</t>
   </si>
   <si>
@@ -235,9 +211,6 @@
     <t>412615</t>
   </si>
   <si>
-    <t>Pete Aguilar</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Aguilar. Thank you, Madam Chair, and I want to thank the panel for joining us here today. This question is for Mr. Weill. I am looking at March 2015 data for Cal-Fresh recipients in my county of San Bernardino in California. In the first quarter there were 397,000 people in my county on Cal-Fresh living in 177,000 households. My question is, how would an evidence-based solution assure me that these folks, whether they are children, elderly, or disabled, would benefit from evidence-based solutions to SNAP alone? And I want to be sure that the people in my community are receiving the assistance that they need to avoid food insecurity.</t>
   </si>
   <si>
@@ -271,9 +244,6 @@
     <t>412536</t>
   </si>
   <si>
-    <t>Rodney Davis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Davis. Thank you, Madam Chair, and thank you for convening this hearing. And I appreciate the Ranking Member, Mr. McGovern, who is very passionate about these issues, and I just wanted to see how fast he would turn around when he heard his name.</t>
   </si>
   <si>
@@ -301,9 +271,6 @@
     <t>412558</t>
   </si>
   <si>
-    <t>Michelle Lujan Grisham</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Lujan Grisham. Thank you, Madam Chair, for this opportunity to continue to look at ways to make this program, SNAP, that I really care about and believe in, as effective as possible in meeting its goals--and doing what it ought to do, which is help this country eradicate hunger. I am from a state that is--I bet every one of the Members of the Subcommittee and entire Agriculture Committee could repeat New Mexico's statistics. New Mexico has one of the worst hunger problems in the country for both children and adults. And we went from last to fourth this year, so that is in the right direction, but it is still deplorable that my constituents face hunger every single day. And I recognize that this is a program whose intent and ability to do something about that is meaningful.    As a longtime state bureaucrat, Mr. Baron, I love any ideas that incentivize me, as a policymaker in that regard, to think of ways to improve programs, and if there are savings, to keep it. But, and here is my big but, that in the context of states, particularly like mine, who are in significant budgetary problems, and are suffering from one of the weakest economies in the country, and an Administration who I disagree with, in terms of how they feel about any public benefits, those kinds of incentives can be very counter-productive, and create exactly the opposite intent, of innovation and productive reform. I really want you to talk to me a little bit about that, but I am going to give you some stats to illustrate how this can go wrong.    Right now New Mexico, our proposed work requirements are for seniors and children. I want to tell you that our work requirements are also for unpaid work, which means I am already not getting enough for child care and housing, now I have to volunteer in places that are far away, in a state that has no public transportation really, because we are a rural and frontier state, so we are slow to get that off the ground. And think about it in the context of all of our friends now who have often unproductive and unwanted audits in health care, where we incentivize the independent auditors, that they get to keep anything that they find, so they find stuff that really isn't fraud, but is a mistake. It really shuts down a lot of our direct care providers in the health care system. That is going on in New Mexico as well.    And one more thing. When we are putting up barriers just in the application process, as in New Mexico, because of those changes in the applications, most applicants wait months before they can get our computer system to look at those applications. SNAP benefits processing has fallen by 23 percent, and this is a design as part of reforming the program: 20,000 lost their food benefits. The state did nothing about it, and the only way to address the delays, and the barriers, and the applications, and the computer system, and the work requirements is courts are now involved, mandating that the state do something.    So that is an extreme example of how it goes completely the other way. Talk to me about some of those protections, balances, so that when we do our job, that hunger doesn't get worse, and that we are focusing on supporting those constituents who need us most, and who need this program most, and so we can be sure get the services and benefits that they need.</t>
   </si>
   <si>
@@ -319,27 +286,15 @@
     <t xml:space="preserve">    The Subcommittee met, pursuant to call, at 10:00 a.m., in Room 1300 of the Longworth House Office Building, Hon. Jackie Walorski [Chairwoman of the Subcommittee] presiding.    Members present: Representatives Walorski, Crawford, Yoho, Abraham, Moolenaar, McGovern, Adams, Aguilar, Plaskett, Ashford, and DelBene.    Staff present: Anne DeCesaro, Haley Graves, Jadi Chapman, Mollie Wilken, Faisal Siddiqui, John Konya, Lisa Shelton, Nicole Scott, and Carly Reedholm.    The Chairwoman. Good morning. Welcome to today's Past, Present, and Future of SNAP hearing on Breaking the Cycle. I would like to welcome you here this morning. I am so appreciative for all of our witnesses who have come, for our Members as well. Thank you for coming to the Nutrition Subcommittee, and thank you for making time in your schedules to be here.    This is the latest hearing in our series, the Past, Present, and Future of SNAP. Today, we are examining how to break the cycle of poverty.    This hearing was inspired by a visit I made last year to Concord High School in Elkhart, Indiana, in my district. I am sure my colleagues here are very familiar with how these visits typically go. You answer questions from the brightest students gathered in the auditorium or the classroom, and they ask questions like how does a bill become law, what is it like to be in Congress, what is your position on such-and-such an issue? However, one student's question that day caught me off guard, and it was a young woman who stood up in that class and said, ``How do I break the cycle of poverty?'' And I will never forget this as long as I live. The student stood up in front of her peers and bravely told her story that day of her family receiving SNAP. While in high school, she got a job to start saving for college because she recognized the value of a college degree. She is trying to break out of the poverty cycle, trying to do the right thing as a young woman, yet feels intense pressure on all sides to maintain the status quo. She wanted to know how can she as a young woman, break the cycle of poverty. That day will resonate with me forever, and that is why we are here today.    In our past hearings, we have examined the conditions necessary to help adults climb the economic ladder, and the way community organizations serve as vital conduits and bridges to other support services. But what about adolescents and kids? Studies have shown that children who grow up in impoverished conditions are more likely to have lower academic achievement, and are more likely to live in poverty as adults. How do we give today's youths an off-ramp from this?    SNAP is only one piece in the social safety net puzzle for families, so we have to recognize that this one program can't do it all. And as we saw in a previous hearing, sometimes that puzzle can inadvertently create disincentives to work. The welfare cliff, for example, forces recipients to consider foregoing raises or promotions, or work altogether, because the increase in earned income isn't enough to replace the loss of SNAP and other benefits. America is the land of opportunity, not the land of we will have to think about it.    SNAP tries to help young people break the cycle of poverty by exempting formal college savings, like 529 plans, and income from full-time students under 18 from eligibility calculations. Are these effective? Is there more we can do to aid children to break the cycle of poverty?    Today, we will hear from witnesses who can attest to the impact poverty has on children, the challenges they face as they transition into adulthood, and ways we can help them increase their chance at success.    I thank each of our witnesses today so much for being here, and I would like to take a moment to introduce one witness here today from my district, Ruth Riley.    Ms. Riley played for the University of Notre Dame and was a member of the 2001 National Championship Women's Team, won a WNBA Championship with the Detroit Shock, and a gold medal with the U.S. Olympic team in 2004. Before she won championships on the basketball court, Ruth was raised in a single-parent household that relied on food stamps and free and reduced lunches. In 2012, Ruth became an ambassador for Share our Strength, a nonprofit organization committed to ending childhood hunger, as part of their No Kid Hungry campaign. Thank you, Ms. Riley, so much for being here today.    Mr. McGovern. Well, thank you very much. And I want to thank the witnesses for being here. I think this is an important hearing.    And let me just begin by saying that I agree with our Chairwoman that SNAP can't do it all, but what it is supposed to do, which is to make sure that people don't go hungry in this country, I think it needs to do it better. And if we are going to break the cycle of poverty, quite frankly, it is going to require a hearing with more than just the Agriculture Committee, because a lot of our antipoverty programs, a lot of the issues that happen when people hit this so-called cliff, fall under the jurisdiction of multiple committees.    One of the things that I have been urging, unfortunately unsuccessfully thus far, the White House to do is to host a conference--a White House conference on food, nutrition, and hunger, because there are a lot of good things happening all across the country in combating hunger. What we need is a clearinghouse to be able to highlight best practices, but we also need to talk very candidly about ways that we can sew up some of the holes in the social safety net to make sure that people don't fall through the cracks, so that we are helping people move beyond SNAP and hopefully breaking the cycle of poverty.    We have had multiple hearings in this Committee. We have had seven hearings to be exact. We have heard a lot about SNAP, we have talked about comprehensive case management models and innovative public-private partnerships. Look, I am all for strengthening SNAP's job training program, but the real problem is that we don't have enough slots available to meet the need for workers looking to improve their skills. Bolstering our job training programs is expensive. I support it, but it is expensive. And we want to have much more robust case management. That is going to cost more as well. I am all for it and I think that is an important way to help people break the cycle of poverty. But if we are going to do that, we need to make sure that the funding is there. And what I am very strongly against is robbing Peter to pay Paul. I don't think we should lessen our commitment to food and nutrition programs, and divert those monies to someplace else, because, in my view and based on my experience, the SNAP benefit as it is currently constructed is inadequate for families. Go to any food bank in this country and at the end of the month, people are lined up because they have run out of their SNAP benefit. And by the way, the SNAP benefit that is available for people today is less than it was a few years ago because of actions that this Congress has taken to cut the benefit.    SNAP in and of itself is not a jobs program; it is a food program. That is why I am especially pleased that Dr. Ochoa is here with us today, and that his testimony focuses on what the body of evidence says about SNAP's positive effect on children's health. We know that access to adequate nutritious food during childhood is key to healthy development and future economic productivity. We need to get this right. We need to do this better.    So let me remind my colleagues that \\1/2\\ of all SNAP recipients are children, and the last time I checked children weren't expected to work, unless we want to repeal the child labor laws. But the majority of people on this program are children, are senior citizens, are those who are disabled. Of those who work, the majority work, but they earn so little that they still qualify for SNAP.    And so I look forward to the hearing today. We need to figure out how we can do this better, but I worry that in this Committee sometimes we look at SNAP to be the remedy for everything. This is a program to make sure people do not go hungry in this country, and the benefit is inadequate. We need to bring in other committees. We need to get the White House more engaged in this debate and in the challenges before us, and we need to figure this out, and I think we can probably find some bipartisan consensus on that.    So with that, I yield back my time.    The Chairwoman. Thank you, Mr. McGovern.    The chair would request that other Members submit their opening statements for the record so the witnesses may begin testimony to ensure there is ample time for questions.    The chair also would like to notify Members that they will be recognized for questioning in order of seniority for Members who were here at the start of the hearing. After that, Members will be recognized in order of arrival. I appreciate Members' understanding.    Witnesses are reminded to limit your oral statements to 5 minutes. All of the written statements will be included in the record.    I would now like to welcome the witnesses to the table. Caroline Ratcliffe, Senior Fellow, Urban Institute, Washington, D.C. Thank you so much for being here. The aforementioned Ruth Riley, former WNBA Athlete and Olympic Gold Medalist. Dr. Eduardo Ochoa, Jr., M.D., Little Rock, Arkansas, on behalf of Children's HealthWatch. Thank you so much for being here. And Dr. Haskins, Senior Fellow, Brookings Institution, Washington,     With that, Dr. Ratcliffe, please begin with your testimony when you are ready.       STATEMENT OF CAROLINE E. RATCLIFFE, Ph.D., SENIOR</t>
   </si>
   <si>
-    <t>Ratcliffe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Ratcliffe. Thank you. Good morning, Madam Chair, and Members of the Subcommittee.    My name is Caroline Ratcliffe and I am an Economist and Senior Fellow at the Urban Institute. The Urban Institute does not take policy positions. The views I am presenting today are my own. I will describe findings from my research on childhood poverty. This research is closely connected with this Subcommittee's work on SNAP, as poor children are substantially more likely to be food-insecure than their non-poor counterparts.    My research highlights obstacles poor children face in reaching milestones, such as completing high school, graduating from college, and maintaining consistent employment. This research helps us understand what it would take to break the cycle of poverty. This research is based on data that tracks families over 40 years, and follows children from birth throughout childhood and into adulthood.    I will answer three questions. In answering these questions, I get at issues of economic mobility, and how poverty and economic vulnerability cycles through to the next generation.    The first question is just how many children are we talking about when considering poverty. Well, roughly one in five children currently lives in poverty. Nearly two in five children are poor for at least 1 year before they reach their eighteenth birthday. That means that roughly 29 million of today's children are expected to live below the poverty line before age 18. Further, one in ten children is persistently poor; meaning, they spend at least \\1/2\\ of their childhood living in poverty. Importantly, persistently poor children do not enter poverty and stay there. Rather, they tend to cycle into and out of poverty.    Moving to the second question: How does childhood poverty link with adult success. Children who have been poor for at least 1 year before age 18 are less likely to reach important adult milestones, such as graduating from high school, enrolling in and completing college, and maintaining consistent employment. Although 93 percent of children who were never poor complete high school by age 20, only 78 percent of children who have ever been poor do so. And when looking at the subset of children who are persistently poor, the disparity is even greater. As these poor children become adults with limited education, there are implications for their long-term economic well-being, as lower-educated groups have lower wages and higher unemployment rates. Overall, these data show that when these poor children enter adulthood and have their own children, poverty and economic vulnerability, as well as food insecurity, will cycle through to the next generation.    Moving to address the final question: Among children who have experienced poverty, what are key indicators of their future success beyond poverty. There are three important dimensions. First is parents' educational attainment. Among children who have experienced poverty, children with less-educated parents, particularly a parent with no high school degree, have lower educational achievement. This relationship persists even after taking account of the length of time children spend in poverty, and other family and neighborhood characteristics. So it is not just poverty. Parents' education matters above and beyond poverty.    The second is residential instability. Among children who have experienced poverty, children who move for negative reasons, such as an eviction or the family's need for lower rent, are worse-off educationally than children who never move. Moves that happen for negative reasons can exacerbate already tenuous circumstances for children, particularly if the move results in the need to change schools during the school year.    Third, place matters. Children who grow up in disadvantaged neighborhoods fare much worse. Among children who have been poor, children in more advantaged neighborhoods are substantially more likely to complete high school by age 20 than children from the most disadvantaged neighborhoods.    In closing, these data show that childhood poverty and the cycle of poverty are complex issues. If we want to break the cycle of poverty and food insecurity, there should be close coordination across safety net programs. SNAP exists in the context of other programs and policies, so it would be beneficial to connect SNAP reforms with other antipoverty programs, such as those that assist with savings and asset building, education and training, childcare and other work supports. SNAP has taken important steps in this direction by making it easier for families to save in years when they have higher income, without giving up future SNAP eligibility in downtimes. Savings and assets give people the tools to protect their families in tough times, and invest in themselves and their children. Further reforms in this direction can help families create a more stable environment for children.    Thank you.</t>
   </si>
   <si>
-    <t>Riley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Riley. Good morning, Chairwoman Walorski, Ranking Member McGovern, and Members of the Committee.    I would like to thank you for this opportunity to share my experience on the importance of the Supplemental Nutrition Assistance Program, or what my family called food stamps.    This is an issue that is woven into the very fabric of my childhood. My father walked out when I was 4 years old. He left my mom to raise my older sister, younger brother, and myself on her own. She found herself doing whatever blue collar work she could to provide for us, but it wasn't easy.    Besides the rare instances that I would wake up in the middle of the night and find her crying at the kitchen table because she was trying to navigate through our family's finances, I was pretty oblivious, as most children are, to the level of poverty we lived in. I knew there were some times when my mom paid for our groceries with what looked like Monopoly money instead of cash. Off and on throughout my childhood I would have this little ticket that would get me a free breakfast or lunch at school. But as a kid, I had limited knowledge of food stamps or free and reduced lunch programs. I just knew that somehow, when we needed it, there was always food.    Because I had this food, I was able to learn and focus in school, which ultimately led me to graduate with honors from the University of Notre Dame. It fueled my real passion, basketball. I am grateful and proud of the success that I have had winning championships on the collegiate, professional, and Olympic levels. I often joke that when I was growing up, I was tall, lanky, and uncoordinated. But looking back, I can't imagine what my path would have been like if I was tall, lanky, uncoordinated, and hungry. When times were tough, the nutrition I received through programs like food stamps and school meals helped me grow stronger. It saw me through all the numerous hours of training before and after school, lifting with our football coaches and playing pick-up games with the boys. It was all very physically demanding, and I couldn't have done it if I didn't have enough to eat.    We live in the land of wealth and opportunity, so acknowledging that one in five children in this country lives in a family struggling to put food on the table is hard. It is easy to feel compassion about hungry children when it is in the abstract, but it is tough to admit that our next-door neighbor's child might not have enough food they need to thrive. I say thrive because in America, it is often not the case of life or death or survival, it is the fact that kids don't have the nutrition they need to learn and physically grow. By not providing them with that, as a society, we are also not providing them with the opportunity to be successful, to go to college, and to break the cycle of poverty instead of getting stuck in it.    We talk about educational reform, but we don't talk about the fact that hungry kids can't concentrate and learn. We talk about health care, but we don't talk about the stunted development and avoidable health issues that rise from the lack of proper nutrition. We talk about jobs, but we overlook the impact of hunger-related issues on creating a job-ready generation.    SNAP is critical to ending childhood hunger. I can tell you firsthand that when programs like SNAP work in tandem with other programs like school meals, we can make sure that kids are getting the three meals a day they need to grow strong. For example, school breakfast ensures that kids start their days with healthy meals to fuel their brains, while allowing parents to stretch SNAP dollars longer into the month instead of running out early. This way, when the money is extremely tight, we can guarantee that kids are still getting the healthy food they need.    My mom taught me to dream big and then to work extremely hard to achieve those dreams. My dream as a little girl growing up on a farm in Indiana was to play in the Olympics, and I was fortunate to see that dream fulfilled in Athens in 2004, when I stood on the podium and received a gold medal. Today, my dream is equally as bold, and I believe, achievable. I want to see a nation where no child goes hungry, a nation where every child has the ability to get the nutrition they need to grow up smart and strong, a nation where every little girl dares to dream her dream, and gets the food and support she needs to grow up and achieve them.    Thank you.</t>
   </si>
   <si>
-    <t>Ochoa</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Ochoa. Thank you, Madam Chair, and Members of the Committee, and good morning.    My name is Dr. Eddie Ochoa, and I have the opportunity to give this testimony as a member of Children's HealthWatch, a nonpartisan network of pediatricians, public health researchers, and children's health and policy experts committed to improving children's health in America.    I am a general pediatrician, and I practice at Arkansas Children's Hospital in Little Rock, as a faculty member of the University of Arkansas for Medical Sciences.    Little Rock is one of five sites in the Children's HealthWatch research network, along with Baltimore, Boston, Minneapolis, and Philadelphia. Our mission is to improve the health and development of young children by informing policies that address and alleviate economic hardships. We do this by interviewing caregivers in emergency departments and clinics on the frontlines of care in these five sites. We have interviewed 60,000 caregivers since 1998 to determine the impact of public policies on child health and development of real children.    Justin is one such real child. Hospitalized twice in his first 2 years of life for poor growth, I saw him in my clinic. He lives in the Mississippi Delta region of Arkansas with his parents and two siblings. The family drove over an hour each way to come see me. Justin's father works at a sawmill but his wages fluctuate. When he brings home less money in a month, the family is eligible for the Supplemental Nutrition Assistance Program, but with an uptick in his pay, they lose eligibility for SNAP and a crucial support for supporting Justin's and the whole family's health. The increased pay does not match the value of the SNAP benefit, and thus, Justin's health can fluctuate with his father's pay and his family's eligibility for SNAP.    Speaking of health, intuitively all of us in this room would probably guess that being hungry or food-insecure is not good for a young child like Justin. In fact, there is a wealth of scientific evidence demonstrating the hazard that food insecurity poses to health across the whole lifespan, starting in pregnancy and early childhood. Adequate nutrients are required to support healthy development, but food insecurity can compromise it. The USDA estimates that nearly 20 percent of all U.S. hospitals with children under 6 experienced food insecurity in 2014, reporting limited or uncertain availability of enough food for an active healthy life.    We know that household food insecurity increases the risk of developmental delays by approximately 70 percent in early childhood. More specifically, compared to food-secure children, food-insecure children are twice as likely to be in fair or poor health, and are 30 percent more likely to have been hospitalized after birth.    We have strong solutions to this grave national problem. The furthest-reaching of these is SNAP. It is truly a health intervention, helping to protect the health and well-being of those who participate in the program. For example, research has shown that SNAP lowers the risk of household and child food insecurity, reduces the risk of anemia, obesity, and poor health for children and adults, and lowers the risk of hospitalization for failure to thrive, and reports of child abuse or neglect. Moreover, it enhances intake of B vitamins, iron, calcium, and improves children's academic performance.    At Children's HealthWatch, we call SNAP a vaccine because, like a vaccine, it protects children's health now and in the future, and also has wider community benefits. Our research on families with young children has shown that SNAP significantly reduces food insecurity for the whole family, and importantly, reduces food insecurity among children. Children whose families receive SNAP, compared to those who are likely eligible but did not receive it, were also significantly less likely to have developmental delays and less likely to be underweight for their age. Families as a whole also were better able to make ends meet when they participated in SNAP. Those who participated were less likely to have had to choose between paying for medical care and paying for other basic needs like food, housing, or utilities. But like a vaccine, it is essential to be able to apply SNAP in the proper dose, and for the necessary course or length of time in order for it to have the maximum impact on children and families.    If you will allow me to make another child health connection here, food insecurity and hunger can be likened to a problem like asthma, which needs the right medicine when there is a breathing crisis and a different, long-term medicine when there--to keep another crisis at bay. It is certainly true that asthma is a big problem in the U.S., but hunger in America is an even bigger problem, and it is not easy to know who is food-insecure and who is not. I will come back to that idea in a second.    In order to manage asthma properly, so-called rescue medication is essential to deal with the immediate crisis because medicine is not enough as a long-term strategy. Food assistance for hungry children and families must be as robust on the long-term side via systemic programs such as school meals, summer feeding, WIC, in addition to the cornerstone that SNAP is. It is also dependent on the emergency food assistance networks across America.    As you might imagine, though it exists everywhere in the U.S., the severity of food insecurity differs by state, and rates can be very high in some states. Where I live in Arkansas, Children's HealthWatch research based on data from the caregivers in our emergency department shows that nearly one in four families with a child under the age of 4 in the home is food-insecure. This is against a backdrop of 27.7 percent of Arkansas households with children being food-insecure, and having the second highest overall rate of food insecurity in America. We highlighted these findings in a report titled Doctor's Orders, released this past spring. We also made note of the fact that food insecurity coexists with other household insecurities, as have previously been mentioned, like rent and utilities.    I mentioned earlier that food insecurity is often not easy to spot. That is why we developed a shortened version of the 18 item USDA screener, and validated what we call the Hunger Vital Sign. The Hunger Vital Sign emphasizes that just like blood pressure or weight, which a nurse checks at every visit, we can use this as a marker of food insecurity in the home. And, in fact, last week, the American Academy of Pediatrics released a statement, Promoting Food Security for All Children, that recommends the use of this Hunger Vital Sign by all pediatricians.    I thank you again for the invitation to provide this testimony.</t>
   </si>
   <si>
-    <t>Haskins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Haskins. Chairwoman Walorski, Ranking Member McGovern, Members of the Subcommittee, I am very pleased to testify----    The Chairwoman. Excuse me, can you turn your microphone on?</t>
   </si>
   <si>
@@ -391,9 +346,6 @@
     <t>412400</t>
   </si>
   <si>
-    <t>Eric A. "Rick" Crawford</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Crawford. Thank you, Madam Chair. And I want to thank the witnesses for being here, and particularly I want to welcome Dr. Ochoa from Arkansas Children's Hospital.    I am one of those families in Arkansas who has seen personally, up close and personal, the benefits of Arkansas Children's Hospital. It is a world-class institution and doing great work there, and I thank you for that.    You mentioned some statistics in your testimony, Dr. Ochoa, about Arkansas in particular being the second highest rate in the United States in terms of food insecurity, and I find that to be a little bit ironic considering we are one of the most productive agricultural regions in the country, if not the world. And so I say that to say this: we tend to look at these problems a lot of times through the lens of our own district, but with the statistics that we have in east Arkansas, which is my district, and the Mississippi Delta, if we can get this issue right there we can apply that anywhere, and create a template to really effectively address this food insecurity issue.    Let me ask what specifically the Arkansas Children's Hospital is doing and the work you are doing in the region, how are you tackling food insecurity in the Delta, and can you expand on the role of public-private partnerships to help assist in those challenges?</t>
   </si>
   <si>
@@ -412,9 +364,6 @@
     <t>412607</t>
   </si>
   <si>
-    <t>Alma S. Adams</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Adams. Thank you, Madam Chair, Ranking Member McGovern. And thank you all for your testimony.    North Carolina is currently approved by USDA to receive a waiver from work requirements for able-bodied adults in the areas of the state that continue to experience high levels of unemployment for Fiscal Year 2016. The waiver allows able-bodied adults to receive SNAP benefits for more than 3 months during a 3 year period if they cannot find a job during an economic crisis.    Recently, the North Carolina General Assembly passed House Bill 318, and it prohibits the state from ever applying for a waiver for SNAP work requirements for able-bodied adults during an economic crisis, and that any waivers currently requested shall not extend past March of 2016.    The bill, in my opinion, is mean-spirited. It punishes people in high unemployment areas. And in my district, we have a 13.8 percent unemployment, and, of course, this limits the state's ability to meet the needs of the unemployed. As has been said here, SNAP is not a work program, it is a nutrition program, to help those who are struggling to put food on the table.    Last month, I sent a letter to our Governor asking that he veto this bill. And we are still waiting, but I continue to call on our Governor to do this, which he must do by the end of this week to keep the bill from becoming law.    Dr. Haskins, if there are not enough jobs to go around for every able-bodied adult without dependents in North Carolina, what is the value of increasing work requirements for SNAP recipients?</t>
   </si>
   <si>
@@ -490,9 +439,6 @@
     <t>412659</t>
   </si>
   <si>
-    <t>Stacey E. Plaskett</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Plaskett. Thank you very much. Thank you, Madam Chair, and the Ranking Member. And thank you so much for your testimony, for your thoughts and ideas in this.    I had so much to say, or questions that I had to ask, but I was really taken by the last line of questioning, and the discussion about symptoms and what the underlying symptoms are. Recognizing in my own life that so many of the friends that I grew up have not had the success that life has given me, and so much of it had not to do with responsibility but just sheer luck and being in the right place, because everybody wanted to be responsible and everybody wanted to have those opportunities, but they don't always come. They particularly don't always come in the areas that this country has completely forgotten about, or have neglected because they want to have policies that satisfy their own personal needs but don't put food in children's stomachs. And so the symptom is us, not the irresponsibility of parents. But for those of us that have excess food, and food being in abundance in this country, that there are children who do not eat, who cares if their parents are not working. If children don't eat, that is an indictment on all of us.    So, Dr. Haskins, I wanted to ask you a question. You talked about jobs and the responsibility, and that indeed it is very, very important for people to have jobs, not only to receive the funding, because having jobs makes people feel like fulfilled individuals, and I think that most people want that feeling. I agree there are some who do not, but as a general whole, most Americans, most people throughout the world require that.    What do we do in the instances where we have a district or an area that has a 31 percent child poverty rate, and in some areas in that area there is an 18 percent unemployment rate, how do you fulfill the need for people to have jobs in areas like that?</t>
   </si>
   <si>
@@ -568,24 +514,15 @@
     <t xml:space="preserve">    Dr. Ochoa. Thank you, sir.    The Chairwoman. Well, I certainly want to say thank you to the panel for coming and sharing your expertise, and giving us information so we can continue to look at the challenges that are faced by kids as they try to break the cycle of poverty. And I would agree, based on the seven previous hearings that we have had, that no program is perfect and we can always do better. So I appreciate your contribution in making that happen today.    Under the rules of the Committee, the record of today's hearing will remain open for 10 calendar days to receive additional material and supplementary written responses from the witnesses to any question posed by a Member.    This hearing of the Subcommittee on Nutrition is adjourned.</t>
   </si>
   <si>
-    <t>Peterson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    The Committee met, pursuant to call, at 10:00 a.m., in Room 1300 of the Longworth House Office Building, Hon. K. Michael Conaway [Chairman of the Committee] presiding.    Members present: Conaway, Austin Scott of Georgia, LaMalfa, Davis, Yoho, Walorski, Allen, Bost, Abraham, Newhouse, Kelly, Peterson, David Scott of Georgia, Walz, Fudge, McGovern, DelBene, Lujan Grisham, Kuster, Nolan, Bustos, Kirkpatrick, Aguilar, Plaskett, Adams, Graham, and Ashford.    Staff present: Anne DeCesaro, Haley Graves, Jadi Chapman, Jessica Carter, Mollie Wilken, Lisa Shelton, Liz Friedlander, Matthew MacKenzie, Nicole Scott, and Carly Reedholm.    The Chairman. Good morning. I am going to call the hearing to order. I will ask David Scott to open us with a prayer. David?    Mr. David Scott of Georgia. Dear Heavenly Father, we come before your throne of grace to, first of all, give thanks. We thank you for the bountiful blessings that you give to each of us every single day. Some we know not, some we asked not for, but you intercede on our behalf and give us the blessings that we need. And Heavenly Father, at this time we ask a special blessing, that your arms of protection hover around those families of those individuals of those 500 or more who were assassinated and slaughtered and injured by those radical Islamic terrorists in Paris. Now, dear Heavenly Father, we pray that you give our nation, the United States, the will and the backbone to stand up and lead. We ask, dear God, that you give us all that power and strength. I pray that we, as NATO, would give in to our Article V and help France the same way that, when we were attacked, we asked for Article V of NATO. We must do the same, and stand up and fight this evil, stand up with France as they stood with us in our time of need. And our President will lead and invoke Article V of NATO. This is my prayer, dear God. And finally, give this nation the Isaiah instinct. For when you said, ``Whom shall we send, and who will go for us in that great time of need,'' Isaiah, without hesitation, said, ``Here, my Lord, send me.'' Thank you, dear God. This is what we pray for, the courage and the backbone. We ask this prayer from our humble hearts, all of us, that we are able to rid this evil. We pray for this earnestly, and we pray for it in the name of your Son, Jesus Christ, and you, dear God. Amen.    The Chairman. Amen. Thank you, David. Well, good morning, this hearing on the past, present, and future of SNAP: the National Commission on Hunger, will come to order. I want to welcome our witnesses to today's hearing, and thank them for taking time to share their experience as members of the National Commission on Hunger. This hearing, like those before, builds on the Committee's top to bottom review of the Supplemental Nutrition Assistance Program, or SNAP. Throughout this process we have had an eye towards strengthening SNAP so that it doesn't become a trap, but rather a tool to help individuals to move up the economic ladder.    As we have learned throughout this hearing series, SNAP does not operate in a vacuum. It should not be expected to carry the entire load and provide all the solutions for the most vulnerable. That being said, it does serve an important role in the lives of nearly 46 million Americans. For them, and the integrity of our review, it is important that we continue to invite for our consideration a range of perspectives and recommendations for improving SNAP and the other nutrition programs under our jurisdiction. Hearing from the National Commission on Hunger is a continuation of that effort.    As you will hear, the Commission spent the last year traveling the country to see and listen to those closest to this issue, to better understand the challenges within these programs, as well as learn about the successes. The Fiscal Year 2014 omnibus appropriations bill provided $1 million for a national commission on the domestic hunger by including an amendment from former Congressman Frank Wolf. The purpose of the Commission, according to the bill, was to provide policy recommendations to Congress and the Secretary of Agriculture on how to more effectively use existing Department of Agriculture programs, and their funds, to combat domestic hunger. They were also instructed to develop innovative recommendations to encourage public-private partnerships, faith-based sector engagement, and community initiatives to reduce the need for government nutrition assistance programs, while protecting the safety net for the most vulnerable members of society.    The ten member Commission was made up of individuals appointed by the Speaker, the Minority Leader of the House, the Senate Majority Leader, and the Senate Minority Leader, the result being five Republican and five Democratic selected Commissioners with a range of backgrounds from a medical doctor to a grocery store owner, to hunger advocates and community leaders. Today, the Commission selected Co-Chairs are here to share their year-long experience with a process that involved field hearings and site visits, to nine different cities. Each hearing began with invited witnesses, similar to our format, but it would then open up for public input. I believe the hearing in D.C., back in the spring, lasted more than 5 hours. Now, that is pretty remarkable, considering each public witness was limited to 5 minutes.    While their report is not yet final, I commend their efforts to remain united as a Commission, especially given their diverse backgrounds, in presenting their final recommendations, and for staying within their charge to not propose policies that increase costs or require additional resources. I look forward to hearing from the Commission's Co-Chairs about their process, the emergent themes from the process, and a preview of what we can expect when their final report is released in the coming weeks.    Mr. Peterson. Thank you, Mr. Chairman, and I would like to yield our time to the Ranking Member of the Nutrition Subcommittee, Mr. McGovern, from Massachusetts. OPENING STATEMENT OF HON. JAMES P. McGOVERN, A REPRESENTATIVE </t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. McGovern. I thank the Ranking Member for yielding me the time. And let me also thank Dr. Chilton, and Mr. Doar, for being with us today. And I want to thank you for your work in Co-Chairing the National Commission on Hunger. This is a very important subject. It is a big deal, and, quite frankly, the issue of hunger ought to be a bigger deal in this Congress than it is. I appreciate you being here.    I will say that this particular hearing is a little bit premature, in the sense that we haven't seen the final report yet. So, to me, it is difficult to see how we can get into the details on anything we haven't seen on paper. That being said, I appreciate your being here and giving us a preview of the Commission's findings. You were given no easy task, to come up with policy recommendations to solve hunger, and to put them all in one report, and you were given very, very strict parameters, to work within existing programs, and to carry out your work on a very limited budget. The Chairman began by saying that we want to strengthen SNAP, however, I have gotten the feeling that, rather than strengthening SNAP, it is a program that is constantly under attack in this Congress. And I do think we need to re-focus our attention on how we strengthen not only SNAP, but programs to make sure that people in this country have enough to eat, have access to good nutritious food, and don't go hungry.    I want to just take a moment to remind everyone about a few fundamental facts about the SNAP program. First and foremost, it is a food program, not a jobs program. Its purpose is to provide food for people who are struggling. Second, about \\2/3\\ of those who receive SNAP are children, senior citizens, and the disabled. They are not expected to work. So we can talk all we want about work requirements, but the bottom line is those won't apply to the majority of those who are receiving SNAP. Of those who can work, the majority do work. Let me repeat that. The majority of SNAP recipients, who are able to work, do work. But the reality is they earn so little, either at full time jobs or at multiple part time jobs, that they still qualify for the benefit. And we do know, when people go back to work, they begin to lose some of their benefits, and sometimes they find themselves in this precarious predicament where, even though they are working, hunger is a bigger issue, rather than a smaller issue.    There is no doubt that a strong economy and a living wage are the best pathways out of poverty, but compelling people to work when there are no jobs, or there are precious few slots in work training programs, or that they are not expected to work to begin with, doesn't make a lot of sense to me. Cutting them off from SNAP only makes hunger worse. SNAP is a food program, and we shouldn't expect it to single-handedly solve the many challenges of our country's poorest families. SNAP can't be expected to solve broader economic challenges, or barriers people have to work.    So as we begin today's hearing, I urge my colleagues to remember that. What we really need is a national conversation about how we can better tackle hunger in this country. For a long time now I have been saying that the White House ought to convene a White House conference on food, nutrition, and hunger. Congress should work with the White House and the full range of stakeholders to come up with a holistic plan to end hunger in this country. We have programs to deal with this challenge, but I don't know of anybody when asked the question, what is our plan to end hunger, whether it is childhood hunger, or hunger among senior citizens, or hunger in general, that can actually articulate for me very specifically what their plan is. At the heart of that plan would be strengthening SNAP, and other anti-hunger programs, helping families put food on the table.    Let me just finally say that, ultimately, hunger is a political condition. We know we have the resources, we have the intellectual capacity to solve this problem, we have the infrastructure, but for some reason it hasn't been a priority, and there is no sense of urgency to deal with this issue. And too often when we have these debates they end up turning into a session where people who are poor, and who are struggling, are blamed, and we are not talking about developing a road map to end hunger. So, I hope that this hearing is not just a hearing to check the box, but I hope it is a hearing that will actually begin to lay the groundwork for a wider discussion. We need other agencies, other departments in the government to be working together, not in a silo-like way. We need more public-private partnerships. We have great examples of what works, and I am sure you have seen some of them all across the country. But we need to pull all this together, and work with the White House to develop a comprehensive plan to end hunger once and for all in this country. I thank you for being here, and look forward to your testimony. I yield back.    The Chairman. I thank the gentleman. The chair requests that other Members submit their opening statements for the record so the witnesses may begin their testimony, and ensure there is ample time for questions.    I would like to welcome our witnesses to the table today. We have Mr. Robert Doar, Co-Chair of the National Commission on Hunger, Morgridge Fellow in Poverty Studies, American Enterprise Institute here in Washington, and Dr. Mariana Chilton, Co-Chair of the National Commission on Hunger, and she is the Director of the Center for Hunger-Free Communities at Drexel University in Philadelphia. So, Mr. Doar, the microphone is yours for 5 minutes.</t>
   </si>
   <si>
-    <t>Doar</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Doar. Thank you, Chairman Conaway, and Ranking Member Peterson. I appreciate being invited today to testify about the activities of the Congressionally appointed National Commission on Hunger. My name is Robert Doar, and I am the Morgridge Fellow in Poverty Studies at the American Enterprise Institute. Prior to coming to AEI, I was the Commissioner of the New York City Human Resources Administration, and prior to that, I was the Commissioner of the New York State Office of Temporary and Disability Assistance.    It has been an honor to serve on the Commission. As a former State and City Administrator of Welfare Programs, including the Supplemental Nutrition Assistance Program, I was familiar with the challenges faced both by struggling Americans, and by the government, and not-for-profit organizations, which do so much to try to help poor Americans. But the experience of the last 18 months, where we gathered testimony and observed the difficulties facing low-income communities across the country, has given me an even greater understanding of the issue, and the ways in which we can address it.    This morning I would like to highlight seven aspects of what we learned during this process. First, we came to an understanding of how to quantify the problem of hunger. We decided early on to focus on very low food security at the household level, an annual measure produced by the USDA, drawn from a survey of Americans. To the members of the Commission, reports of eating patterns being interrupted due to lack of resources is a significant indication of difficulty within a household, which requires attention. While we want to be clear that the hunger seen in America is not equivalent to the malnutrition seen in developing nations, we do believe that the very low food security measure reflects the reality of hardship in the United States. And by this measure, 5.6 percent of households reported hunger in 2014, a rate that remains elevated more than 5 years into the economic recovery.    Second, members of the Commission were cognizant of the fact that our charge limited us to proposing changes which stayed within existing resources. We are aware of the fiscal challenges facing this country, and we are confident that more progress can be made in reducing hunger without having to significantly increase Federal spending. Third, members of the Commission were unanimous in identifying a number of root causes of hunger, many of which were beyond the traditional scope of the food and nutrition programs of the Federal Government. The root causes we identified included the still struggling economy, which contributes to unemployment, the growth in hunger rates are significantly higher for single parent families than they are for married families--and the need for personal responsibility from those with limited resources. To the members of the Commission, it was important to say to Congress that progress on reducing hunger will require attention to these issues, which are not solely the responsibility of the food and nutrition programs.    Fourth, we came away from our field visits and hearings convinced that a key to solving hunger is helping more poor Americans find full time employment. Rates of very low food security are significantly higher in households with no adults working than it is in households with a full time worker. Our various social services programs, and our economy, must do a better job bringing people into the workforce if we are to make strides in reducing hunger.    Fifth, members of the Commission learned that a lot of the best work being done on this issue is taking place in states, and is often led by the not-for-profit community. And the Commission feels that, to the extent possible, we should use states and localities as places for experimentation with new and different approaches, all to be rigorously evaluated before making nationwide changes to the various programs. We don't pretend to have all the answers to the problem of hunger, but we are confident that if states are allowed to experiment with pilot programs, better ideas will come to the fore. Sixth, members of the Commission came to believe that addressing hunger also means addressing nutrition. We can do a better job helping Americans have access to, and to prepare and consume more healthy foods, and in doing so we will make progress on alleviating hunger.    Finally, Commission members came away from their experience exploring this issue deeply proud of the extensive activity by Federal, state, and local governments, corporations and not-for-profits, individuals and faith-based institutions, which is already directed at alleviating, and does alleviate, for many, this difficult problem. Members were unanimous in wanting to celebrate the great contribution our country already makes to address this issue. And they also understood that knowledge of what we already have accomplished should give us a foundation to build on, and confidence that we can solve this problem. We can end hunger in America. Thank you.    The Chairman. Thank you, Mr. Doar. Dr. Chilton, 5 minutes.   STATEMENT OF MARIANA M. CHILTON, Ph.D., M.P.H., CO-CHAIR, </t>
   </si>
   <si>
-    <t>Chilton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Chilton. Again, thank you for the opportunity to testify about the National Commission on Hunger. As a scientist at the Dornsife School of Public Health at Drexel University in Philadelphia, I bring over 15 years of experience designing and carrying out research studies among families with young children to investigate the causes, consequences, and prevention of hunger. I have directly witnessed the physical, social, emotional, and spiritual pain that hunger causes.    Our field hearings for the National Commission also helped us to learn about the realities of hunger. The experience of one particular person, Saleema Akbar, who lives right here in Washington, D.C., made that hardship of hunger quite clear, and these are her words. ``I have worked since I was 13 years old. I am not a senior yet. I am only 57. I have fibromyalgia, osteoarthritis, and diabetes. With the diabetes, they tell me that I have to eat a lot of protein. I get food stamps, but I don't have enough money to buy enough protein to make it through the rest of the month. I am not a child, so I can't get help from any programs, and I am not yet a senior, so I can't get those, so I am stuck between a rock and a hard place. My disability income goes to pay my rent. I get disability because I am 100 percent disabled.'' She said, ``When you are talking about hunger, it is right here, right here. I know you have to feed the babies. I know you have to feed the seniors. But what about the people in the middle?''    Ms. Akbar's testimony reveals to us two things. Number one, like her, the vast majority of people who experience hunger are already vulnerable. They are made vulnerable by their physical and mental health, or perhaps by historical and social circumstances, or perhaps they are incapable of coping with the stress of poverty. Number two, while it is absolutely true that we have very effective nutrition programs, and other support for low-income families, there are still many people that are missed, discounted, or uncounted that are poorly served through our current program structures.    Hunger is an experience of poor nutrition that has major health consequences. Our research shows that hunger has serious consequences, especially in early childhood. Infants and toddlers that are younger than age 3 are in the most important years of human development, and any type of nutritional deprivation in those early years has lifelong consequences, and that is because hunger negatively affects children's physical, social, emotional, and cognitive functioning. These consequences stay with kids across their lifespan, and they can be transferred to the next generation. This type of childhood adversity is what neuroscientists call toxic stress. Other types of toxic stress are homelessness, exposure to violence, or having a parent in prison. Our report insists that families with young children are quite vulnerable to hunger, and they need special attention. Another group that needs our attention is America's veterans. Among veterans of the Iraq and Afghanistan wars, 12 percent reported hunger. This is twice the rate of hunger in the general population. Given the serious problems associated with Post-Traumatic Stress Disorder, we understand that in addition to having nutrition support, veterans may need specialized support to find jobs, and access to safe, affordable housing.    SNAP, WIC, and other nutrition programs do a good job of reducing hunger and promoting health, but they do not solve hunger completely. Clearly we need to improve our current programs, but we also need to address the root causes of hunger, and ensure that we are counting and supporting the most vulnerable citizens of America. Saleema Akbar experiences hunger right here in D.C., and she can no longer be discounted. So many people in communities across America need your attention and leadership. One of our recommendations, therefore, is quite simple. Congress, and the White House, must insist on more effective cross-agency collaboration. Beyond the Department of Agriculture, this includes the Department of Health and Human Services, the Department of Education, Department of Labor, Department of Housing and Urban Development, and the Veterans' Administration. In concert with leadership from the White House and Congress, these agencies should make a coordinated national plan to end hunger in America. Only with this type of leadership, driven by your sense of social, moral, and personal responsibility to our country, is ending hunger possible. Thank you.    [The joint prepared statement of Mr. Doar and Dr. Chilton follows:]Joint Prepared Statement of Robert Doar, Co-Chair, National Commission   on Hunger; Morgridge Fellow in Poverty Studies, American EnterpriseInstitute, Washington, D.C.; and Mariana M. Chilton, Ph.D., M.P.H., Co- Chair, National Commission on Hunger; Associate Professor, Department   of Health Management and Policy, Dornsife School of Public Health,     Drexel University; Director, Center for Hunger-Free Communities,                           Philadelphia, PA *---------------------------------------------------------------------------    * The views expressed in this testimony are those of the authors on behalf of the National Commission on Hunger. Institutional affiliations are provided for identification purposes only and do not imply institutional support or endorsement.---------------------------------------------------------------------------    Chairman Conaway, Ranking Member Peterson, and other distinguished Members of the Committee, thank you for giving us the opportunity to testify about the findings of the National Commission on Hunger.    This Commission was created by legislative mandate in the Omnibus Appropriations Bill of 2014, with the following charge:          To provide policy recommendations to Congress and the USDA         Secretary to more effectively use existing programs and funds         of the Department of Agriculture to combat domestic hunger and         food insecurity; and to develop innovative recommendations to         encourage public-private partnerships, faith-based sector         engagement, and community initiatives to reduce the need for         government nutrition assistance programs, while protecting the         safety net for the most vulnerable members of society.    Congressional leaders from both parties appointed ten members to the Commission: three each by the Speaker of the House and the Senate Majority Leader (John Boehner, R-Ohio, and Harry Reid, D-Nevada, respectively, at that time); and two each by the House and Senate Minority Leaders (Nancy Pelosi, D-California, and Mitch McConnell, R-Kentucky, respectively, at that time). The Commission members represent government, industry, academia, and nonprofit organizations. The biographies of each Commission member are included in the Appendix.    At the outset of our work together, the Commission selected two of our members as co-chairs to guide our work: Mr. Robert Doar and Dr. Mariana Chilton.    Between the two of us, we have over 35 years of experience in addressing poverty and hunger. Robert Doar spent nearly 2 decades administering many of our nation's major safety net programs in New York City and New York State, and Dr. Mariana Chilton has dedicated much of her academic career to studying hunger, its causes, and its consequences for low-income Americans. We have been honored to serve as co-chairs of this bipartisan Commission.    The Commission's goal is to develop recommendations to Congress and the USDA that has the unanimous, bipartisan support of all our members. We are close to completing our report, and are honored to share our process with you.    Over the last year and a half, we traveled to nine cities and heard testimony from 80 invited experts and 102 members of the public who provided testimony and advice during hearings, briefings and site visits. We also observed government and nonprofit programs designed to alleviate hunger. We talked with struggling Americans trying to ensure a better life for themselves and their children. We listened to state officials describe the challenges they face in serving their populations. Through this process, we gained insight into the root causes of hunger in America, why it is such a significant problem, and what improvements can be made.    As is to be expected from bipartisan commissions, sometimes we saw the same things and reached different conclusions about solutions. However, we are working together to put forward a report that gains the unanimous endorsement from our members and presents a full picture of hunger in America. We are confident that consensus will soon be reached and hopeful that upon its release, the report will be considered carefully by Congress.    Today, we will give an update on our findings and the themes at the center of our forthcoming report. We lead with our outline:  I.  Our definition of hunger and its consequences.  II.  The root causes of hunger.  III.  The populations that warrant specific concern.  IV.  Our priorities in recommending solutions and improvements.I. Our Definition of Hunger and its Consequences    Before we could reach any conclusions about hunger in America, we first had to agree about how to define and quantify it. We chose a measure of hunger called ``very low food security,'' defined as the disruption of eating patterns and reduced food intake for at least one household member because the household lacked money or other resources for food. As a Commission, we are in agreement that hunger is an important problem. We also want to be clear that the hunger seen in America is not the equivalent of the famine and severe malnutrition found in developing countries. In our judgment, the very low food security measure of hunger appropriately reflects the reality of serious hardship and focuses our attention on the U.S. households where the problem is most severe. By this measure, 5.6 percent of households (6.9 million households) reported hunger in 2014.\\1\\---------------------------------------------------------------------------    \\1\\ Coleman-Jensen A., Rabbitt M., Gregory C., Singh A. Household food security in the United States in 2014. Washington, D.C.: Economic Research Service, U.S. Department of Agriculture; September 2015. Available at http://www.ers.usda.gov/publications/err-economic-research-report/err194.aspx.---------------------------------------------------------------------------    This is a troubling statistic because the research shows hunger has far-reaching effects on Americans of all ages. When children experience hunger, their academic performance suffers.\\2\\ Adolescents in families reporting hunger encounter more problems with mental health and thoughts of suicide.\\3\\ Adults that report hunger are more likely to be overweight and have other health problems.\\4\\ For seniors, hunger can lead to depression and reduced capacity to perform day-to-day tasks.\\5\\---------------------------------------------------------------------------    \\2\\ Hickson M., de Cuba S.E., Weiss I., Donofrio G., Cook J. Too hungry to learn: Food insecurity and school readiness, Part I of II. Boston, MA: Children's HealthWatch, Boston Medical Center; 2013. Available at http://www.childrenshealthwatch.org/wp-content/uploads/toohungrytolearn_report.pdf.    \\3\\ Alaimo K., Olson C.M., Frongillo E.A. Family food insufficiency, but not low family income, is positively associated with dysthymia and suicide symptoms in adolescents. J. Nutr. 2002; 132(4): 719-725.    \\4\\ Lee J.S., Gundersen C., Cook J., Laraia B., Johnson M.A. Food insecurity and health across the lifespan. Adv. Nutr. 2012; 3(5): 744-745.    \\5\\ Ziliak J.P., Gundersen C., Haist M. The causes, consequences, and future of senior hunger in America. Lexington, KY: University of Kentucky; 2008. Available at http://www.ukcpr.org/Publications/SeniorHungerStudy.pdf.---------------------------------------------------------------------------    We believe that addressing this problem is a question of values--no one in a country as rich as ours should go hungry. And given these concrete consequences, we argue that reducing hunger should be an urgent priority of Congress.II. The Root Causes of Hunger    After hearing over 180 testimonies and visiting multiple cities, it is clear to the Commission that there are many factors leading to hunger in America. A simple explanation focused only on low household income or insufficient nutrition assistance ignores other critical causes. For example, underemployment and unemployment are major factors. Underemployment, which includes part time jobs with unpredictable and fluctuating amounts of hours, seasonal work, or very low wages, causes major income instability or sharp income fluctuations, which are associated with increased odds of hunger. Additionally, households without a working adult are disproportionately likely to experience hunger.\\6\\ The 2007-2009 economic downturn led to a more than doubling of unemployed workers, and hunger levels spiked correspondingly.---------------------------------------------------------------------------    \\6\\ Coleman-Jensen A. Working for peanuts: nonstandard work and food insecurity across household structure. Journal of Family and Economic Issues. 2011; 32: 84-97.---------------------------------------------------------------------------    Six years after the official end of the recession, hunger rates today remain at historically high levels. And the negative impact of labor market forces on hunger is not just cyclical. Due to globalization and automation, our economy has experienced structural shifts over the last 60 years that have led to fewer well-paying job opportunities for Americans without a college degree.\\7\\ Adverse labor market conditions weaken the best defense against hunger: adequate earnings from employment.---------------------------------------------------------------------------    \\7\\ Acemoglu D., Autor D., Dorn D., Hanson G.H., Price B. Import competition and the great U.S. employment sag of the 2000s. August 2014. Available at http://economics.mit.edu/files/9811.---------------------------------------------------------------------------    Relatedly, we identified a strong relationship between hunger and education that works in both directions. Children experiencing hunger have lower graduation rates, while individuals without a high school degree are more likely to experience hunger than their peers who completed high school.&lt;SUP&gt;8-9&lt;/SUP&gt;---------------------------------------------------------------------------    \\8\\ Alaimo K., Olsen C., Frongillo J. Food insufficiency and American school-aged children's cognitive, academic and psycho-social development. Pediatrics. 2001; 108(1): 44-53.    \\9\\ Coleman-Jensen A., McFall W., Nord M. Food insecurity in households with children: prevalence, severity, and household characteristics, 2010-11. Washington, D.C.: Economic Research Service, U.S. Department of Agriculture; May 2013. Available at http://www.ers.usda.gov/media/1120651/eib-113.pdf.---------------------------------------------------------------------------    A third critical factor is family structure. Marriage has a significant impact on whether or not a household will experience hunger: The hunger rate for households headed by married couples is 3.2%, yet for households headed by a single mother with children, the rate is four times that at 12.8%. For households headed by single fathers, the rate is more than two times that of married couples at 7%.\\10\\ Furthermore, children who grow up in single parent families are less likely to do well in school or graduate high school.\\11\\ The fact that 40% of children in the United States are now born to parents that are not married is a key explanation for the continued existence of hunger.\\12\\---------------------------------------------------------------------------    \\10\\ Coleman-Jensen A., Rabbitt M., Gregory C., Singh A. Household food security in the United States in 2014. Washington, D.C.: Economic Research Service, U.S. Department of Agriculture; September 2015. Available at http://www.ers.usda.gov/publications/err-economic-research-report/err194.aspx.    \\11\\ Pruett K. Father-need. New York, NY: Broadway Books; 2000.    \\12\\ The vast majority of pregnancies among couples that are not married are unplanned.---------------------------------------------------------------------------    We also agreed that a full understanding of hunger requires acknowledging the fact that the historical legacies of racism in America and continued racial discrimination today affect access to jobs, home ownership, education, and affordable healthy food. The persistence of racial inequality contributes to hunger rates of 10.4% and 6.9% for African American and Hispanic households, respectively, compared to a 4.5% rate for white households.\\13\\ Additionally, there is a clear link in the research between exposure to violence and hunger.\\14\\---------------------------------------------------------------------------    \\13\\ Coleman-Jensen A., Rabbitt M., Gregory C., Singh A. Household food security in the United States in 2014. Washington, D.C.: Economic Research Service, U.S. Department of Agriculture; September 2015. Available at http://www.ers.usda.gov/publications/err-economic-research-report/err194.aspx.    \\14\\ Chilton M.M., Rabinowich J.R., Woolf N.H. Very low food security in the USA is linked with exposure to violence. Public Health Nutr. 2014; 17(1): 73-82.---------------------------------------------------------------------------    Finally, it is critical to acknowledge one other key ingredient--the actions of individuals. We agree as a Commission that personal agency, responsibility, and the importance of individuals making good choices play a role in the extent to which Americans are hungry, and any discussion of hunger that ignores the importance of personal responsibility is incomplete.III. Populations of Specific Concern    In our study of this issue, we have discovered that certain groups in our country are particularly at risk of experiencing hunger. For instance, the number of seniors will increase dramatically over the next few decades, and it seems likely that the number of homebound seniors will increase correspondingly. Because this growth will further strain organizations on which many elderly Americans depend, such as Meals on Wheels, seniors will be a group that warrants attention. People with disabilities are also a population of specific concern as 38% of all households experiencing hunger include an adult with a disability.\\15\\---------------------------------------------------------------------------    \\15\\ Coleman-Jensen A., Nord M. Food insecurity among households with working-age adults with disabilities. Washington, D.C.: Economic Research Service, U.S. Department of Agriculture; January 2013. Available at http://www.ers.usda.gov/media/980690/err_144.pdf.---------------------------------------------------------------------------    A third population we want to focus on is America's veterans and active duty military. A 2012 study of veterans of the Iraq and Afghanistan wars found that 12% reported hunger, and approximately 1-2% of active duty military members receive SNAP benefits.\\16\\ While there is little data on the extent of hunger among active duty military and veterans, we agree that this issue deserves careful research and consideration.---------------------------------------------------------------------------    \\16\\ Windome R., Jensen A., Bangerter A. Food insecurity among veterans of the U.S. wars in Iraq and Afghanistan. Public Health Nutr. 2015; 18(5): 844-848; and U.S. Department of Agriculture, Food and Nutrition Service. Quick facts: SNAP participation among members of the Armed Forces. Washington, D.C.: U.S. Department of Agriculture, Food and Nutrition Service; February 2014. Available at http://mldc.whs.mil/public/docs/report/qol/SNAP_and_Military_Quick_Facts_Feb_2014_update_w_2010-2012_ACS.pdf.---------------------------------------------------------------------------    Our Commission is also particularly worried about the formerly incarcerated, who have difficulty finding jobs, adequate housing and opportunities to re-engage with their families and communities. As previously indicated, single parent families with young children are especially vulnerable to experiences of hunger. And immigrants and American Indians face particular challenges in gaining access to enough healthy food.    As Congress considers what interventions should be used to reduce hunger, we recommend that these seven groups--seniors, single parent families, people with disabilities, veterans and active duty military, American Indians, immigrants, and the formerly incarcerated--be given special consideration.IV. Priorities in Recommending Solutions and Improvements    In our field visits and hearings, we saw and heard about public and private food programs that were effective in reducing hunger. We encountered research showing that the Federal Government's food assistance programs--SNAP, WIC, and school meals among others--are essential tools that effectively target those in need.\\17\\ However, the latest ERS statistics show that hunger remains elevated despite a 171 percent increase in SNAP receipt since 2000. This illustrates clearly that food assistance programs are addressing the problem, but not fully solving the problem, and this Commission believes that, without a focus on root causes and emphasis on work and nutrition, we will continue to fail to end hunger. Our vital safety net programs provide a strong foundation on which to build a more effective approach to fighting hunger.---------------------------------------------------------------------------    \\17\\ Shafir E. Invited written testimony to the National Commission on Hunger. Professor, Princeton University Woodrow Wilson School of Public and International Affairs. Research Triangle Park, NC: National Commission on Hunger; July 26 2015. Available at https://hungercommission.rti.org/Portals/0/SiteHtml/Activities/WrittenTestimony/InvitedWritten/NCH_Invited_Written_Testimony_Eldar_Shafir.pdf; and Rachidi A. Invited testimony before the National Commission on Hunger: Addressing very low food security among American households. Albany, NY: Research Fellow in Poverty Studies, American Enterprise Institute for Public Policy Research; May 13 2015. Available at https://hungercommission.rti.org/Portals/0/SiteHtml/Activities/PublicHearings/AlbanyNY/AlbanyNY_Testimony_Angela_ Rachidi.pdf.---------------------------------------------------------------------------    While we are still working towards consensus on the final specific recommendations, the Commission thinks reforms must speak to the following themes: work, nutrition and well-being, experimentation, and executive leadership. The primary goal of SNAP is to treat and prevent hunger, but it can also serve as a support for families as they enter the job market. We will put forward recommendations designed to help benefit recipients find work, improve work incentives in assistance programs, and encourage policymakers to evaluate the states' performance in helping employable recipients go to work so they can earn sufficient wages.    We also believe that nutrition programs should be viewed as an opportunity to ensure healthy choices among recipients, and we will endorse evidence-based strategies to encourage good nutrition, promote health, and help recipients make positive choices for their families.    Our Commission will also prioritize finding ways to directly improve the immediate well-being of vulnerable Americans. Our recommendations will involve increasing access to and coordination of essential safety nets, improving the support offered to military families, and encouraging civic engagement efforts to provide help to our neighbors in our own communities.    We don't pretend to have all of the answers to the problem of hunger in America. Instead, we want policymakers at the Federal, state, and local level to experiment with new ideas and to advance changes that prove to be successful. We plan to recommend several pilot programs and to encourage rigorous testing and evaluation of these experiments.    Finally, while Congress can move forward on many of our recommendations, addressing the root causes of hunger, and ensuring that we protect the most vulnerable citizens of America will also take very deliberate, cross-sector and cross-agency collaboration that is encouraged by Congress and led by the Executive Branch. This will ensure that the relevant agencies such as the Department of Health and Human Services, the Department of Education, the Department of Labor, the Department of Agriculture, and the Veterans Administration (to name only a few) coalesce around the common cause of ending hunger in America. This type of leadership, collaboration, and commitment will demonstrate to all Americans that ending hunger is an achievable goal.    Thank you again for the opportunity to provide you with an overview of our work. We hope that our findings and recommendations prove useful in your efforts to help America become a stronger and healthier nation. Appendix: Biographies of Members of the National Commission on Hunger    Mariana Chilton, Ph.D., M.P.H. is an Associate Professor at Drexel University School of Public Health and Director of the Center for Hunger-Free Communities. She directs multiple research studies on the impact of public policy on food insecurity and health and well-being among families with young children. (Reid appointee)    Spencer Coates is President of Houchens Industries, Inc. and serves on its Board of Directors. He joined the Houchens family of companies in October 2003, after retiring from BKD, LLP, a national public accounting firm where he had spent 30 years serving in various capacities. (McConnell appointee)    Robert Doar is the Morgridge Fellow in Poverty Studies at the American Enterprise Institute, where he studies how improved Federal policies and programs can reduce poverty and provide opportunities for vulnerable Americans. Previously, he served as Commissioner of the New York State Office of Temporary and Disability Assistance and Commissioner of the New York City Human Resources Administration. (Boehner appointee)    Jeremy Everett is the founding Director of the Texas Hunger Initiative at Baylor University, a capacity building project that seeks to develop and implement strategies to alleviate hunger through research, policy analysis, education, and community organizing. (Boehner appointee)    Susan Finn, Ph.D. is the CEO of the global consultancy Finn/Parks &amp; Associates and a recognized leader and a respected communicator in the food, nutrition, and health arena. She is a leader in the Academy of Nutrition and Dietetics and is committed to advancing nutrition research and education. (Boehner appointee)    Deborah Frank, M.D. is a child health researcher and the inaugural incumbent of a newly established Pediatric Professorship in Child Health and Well Being at Boston University School of Medicine. She began working at Boston City Hospital (now Boston Medical Center) in 1981. In 1984, she founded the Failure to Thrive Program, now called the Grow Clinic for Children. (Pelosi appointee)    Cherie Jamason is President of the Food Bank of Northern Nevada, a nationally recognized anti-hunger organization and recent Feeding America Food Bank of the Year. She successfully implemented the Nevada Child Nutrition Initiative providing summer food and after school meal programs for low income children throughout Nevada. (Reid appointee)    Billy Shore is the founder and CEO of Share Our Strength, a national nonprofit dedicated to ending childhood hunger in America through its No Kid Hungry campaign. He is also the author of four books, including The Cathedral Within, and chair of Community Wealth Partners, which helps change agents solve social problems. (Pelosi appointee)    Russell Sykes is an independent consultant working on multiple Federal and state projects focusing on Job Search in Temporary Assistance for Needy Families (TANF), Medicaid Reform, Social Security Disability and workforce engagement. He was the former Deputy Commissioner for New York State's Office of Temporary and Disability Assistance where he was responsible for the administration of SNAP, TANF, welfare-to-work and multiple other public benefit programs. (McConnell appointee)    Note: Congressional leaders appointed ten people to the Commission, but one, Ricki Barlow (Reid appointee), later resigned for personal reasons and is not listed above. Institutional affiliations are provided for identification purposes only and do not imply institutional support or endorsement.    The Chairman. Thank you to our panel, our witnesses. The chair would remind Members that they will be recognized for questioning in order of seniority for Members who were here at the start of the hearing. After that, Members will be recognized in order of arrival. I appreciate Member's understanding. I recognize myself for 5 minutes.    Again, I thank the witnesses for being here. We scheduled this hearing in anticipation that the final report would be done in October, and so that is why we are a little bit out of sync, but I wanted to go ahead and bring the Co-Chairs in with us this morning to visit.    Today is our tenth hearing on SNAP, which actually is more than the last three Congresses combined, and calls attention to an issue that is of great concern to all of us. We have made a conscious effort to proceed without preconceived notions, and with a desire to hear from a range of perspectives. We have heard from policy experts, advocates, practitioners, agency officials, and, most importantly, current and former SNAP recipients, and it appears that the Commission made a similar effort to cover a range of perspectives, and to open this process to public witnesses. You are both well versed in the topic of hunger, as are the other Commission members, and you could easily have met and brought your ideas to form your recommendations. Instead, you took a considerable effort to go beyond your own knowledge base, which is important to do. So, with that backdrop, what additional perspectives did you pull in that we might not have been addressing here so far?</t>
   </si>
   <si>
@@ -643,15 +580,9 @@
     <t>412327</t>
   </si>
   <si>
-    <t>Marcia L. Fudge</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Fudge. Thank you very much, Mr. Chairman, and I thank you both for being here. Certainly I really very much appreciate the discussion you were having about veterans, and just want to bring to your attention that today at noon there is going to be a briefing in Canon 340 about veteran food insecurity. So if anyone sitting here today would like to attend, certainly it is open to you.    Let me just say that I thank the witnesses for the work they do. I thank you very much for how dedicated you are to eradicating hunger. And please do understand that what I am about to say does not have anything to do with you, is not directed to you, or any other person who has testified about SNAP or food insecurity. This is our tenth hearing on SNAP or food insecurity. It has, in fact, become an exercise in futility. It is a waste of our time if we are not going to do something about it. We can talk, and talk, and talk. I have no idea what the outcome is, or what we are even looking to do. What I do know is that hunger is not a game. It is not something that we play with. It is life and death for far too many Americans.    We know the statistics. We have the data. We know the problem. I don't know why we keep asking you. We know the problem. We know about hungry veterans. We know about hungry seniors and hungry kids. When are we going to stop talking and do something? We can talk forever and never change one person's life. So the next hearing I want to go to about SNAP is how we are going to make it better. I don't want to hear any more of this. Enough. Let us do what the American people sent us here to do. We need to take care of our poor. We need to take care of our children. We need to take care of our veterans. It is time to stop talking. I yield back.    The Chairman. I thank the gentlelady for yielding back. Mr. LaMalfa, 5 minutes.</t>
   </si>
   <si>
-    <t>LaMalfa</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. LaMalfa. Thank you, Mr. Chairman. That is why we do come here and talk, is to have a dialogue about how we improve a system that is in place that is helping many, many children, and people on the lower end of the income scale. We just want to target that better, because we are all about having it be effective, and having people's tax dollars be stewarded carefully as well, too. There are both ends of that scale that you hear. So I hope the hearings will produce a better coordinated effort there, what your efforts have done with your panels around the country, it looks like. So how many of those have you convened around the country? I am aware of one you had in Oakland, and----</t>
   </si>
   <si>
@@ -736,9 +667,6 @@
     <t xml:space="preserve">    Mr. McGovern. I appreciate it.    The Chairman. The gentleman's time has expired. Mr. Kelly, 5 minutes.</t>
   </si>
   <si>
-    <t>Kelly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kelly. Mr. Doar first, but follow up if you need to, please, ma'am. Can you talk about the selection process, and why you believe it was the appropriate cross-section of the Commission? Mississippi, my state, is one of the highest food insecurity states in the country. We have the highest poverty, the highest obesity rates, which quite often go with hunger. We have actually, a lot of the people who are in the poorest area are actually in the areas where the food is grown, which are the poorest, and have the least food, which does not make sense. But you chose other food-insecure areas that are much less insecure in food, like Albany, or Oakland, as opposed to going to the Deep South, where some of the heart of the problem is. Do you feel like the Commission maybe should have looked at those areas?</t>
   </si>
   <si>
@@ -844,9 +772,6 @@
     <t>412642</t>
   </si>
   <si>
-    <t>Brad Ashford</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ashford. Thank you. This is very interesting. I am interested in your point about that it is really our job to address these things, and maybe we haven't. Is it correct to say that the last real comprehensive legislative approach to poverty was the War on Poverty in Johnson's Administration? Has there been any other real comprehensive big look at poverty?</t>
   </si>
   <si>
@@ -902,9 +827,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Ashford. That makes me feel better. Thank you, Mr. Chairman. I yield back.    The Chairman. The gentleman yields back. Thanks, Brad. Mr. Allen, 5 minutes.</t>
-  </si>
-  <si>
-    <t>Allen</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Allen. Thank you, Mr. Chairman, and thank you for your insight into this. I know we have had a lot of hearings on the nutrition programs, as they relate to agriculture, and that sort of thing. And I do somewhat agree with my colleague, we kind of need to figure out why we are having these problems. And your report is going to give us tremendous insight, and I am looking forward to that report. But one of the things that puzzles me as I am out in the district is that there are jobs available, lots of jobs available, but at the same time we have this disconnect in trying to get folks trained and on the job, and off of these programs. And we have--I don't know, it seems like there is a wall there. And I guess my question is are programs like this discouraging folks from trying to get over that wall, and get employed, and provide for their family, or even have a family?</t>
@@ -1540,11 +1462,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1564,13 +1484,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1590,13 +1508,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1616,13 +1532,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1642,13 +1556,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1668,13 +1580,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1694,13 +1604,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1720,13 +1628,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1746,13 +1652,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
         <v>21</v>
-      </c>
-      <c r="H10" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1772,13 +1676,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>23</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1800,11 +1702,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1824,13 +1724,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1852,11 +1750,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1876,13 +1772,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1904,11 +1798,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1928,13 +1820,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1956,11 +1846,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1980,13 +1868,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2006,13 +1892,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2032,13 +1916,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2058,13 +1940,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>23</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2084,13 +1964,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2110,13 +1988,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2136,13 +2012,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
         <v>37</v>
-      </c>
-      <c r="H25" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2162,13 +2036,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2188,13 +2060,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2214,13 +2084,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>47</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2240,13 +2108,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2266,13 +2132,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>47</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2292,13 +2156,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2318,13 +2180,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s">
-        <v>47</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2344,13 +2204,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2370,13 +2228,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
         <v>47</v>
-      </c>
-      <c r="H34" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2396,13 +2252,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>55</v>
-      </c>
-      <c r="G35" t="s">
-        <v>56</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2422,13 +2276,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2448,13 +2300,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>55</v>
-      </c>
-      <c r="G37" t="s">
-        <v>56</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2474,13 +2324,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2500,13 +2348,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>55</v>
-      </c>
-      <c r="G39" t="s">
-        <v>56</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2526,13 +2372,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2552,13 +2396,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
+        <v>48</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
         <v>55</v>
-      </c>
-      <c r="G41" t="s">
-        <v>56</v>
-      </c>
-      <c r="H41" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2578,13 +2420,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2604,13 +2444,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>23</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2630,13 +2468,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>55</v>
-      </c>
-      <c r="G44" t="s">
-        <v>56</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2656,13 +2492,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>23</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2682,13 +2516,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>55</v>
-      </c>
-      <c r="G46" t="s">
-        <v>56</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2708,13 +2540,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
-        <v>23</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2734,13 +2564,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
-        <v>23</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2760,13 +2588,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>55</v>
-      </c>
-      <c r="G49" t="s">
-        <v>56</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2786,13 +2612,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>72</v>
-      </c>
-      <c r="G50" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2812,13 +2636,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2838,13 +2660,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>72</v>
-      </c>
-      <c r="G52" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2864,13 +2684,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2890,13 +2708,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>72</v>
-      </c>
-      <c r="G54" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2916,13 +2732,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>23</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2942,13 +2756,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>72</v>
-      </c>
-      <c r="G56" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2968,13 +2780,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>23</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2994,13 +2804,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s">
-        <v>23</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3020,13 +2828,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>72</v>
-      </c>
-      <c r="G59" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3046,13 +2852,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>84</v>
-      </c>
-      <c r="G60" t="s">
-        <v>85</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3074,11 +2878,9 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>12</v>
-      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3098,13 +2900,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>84</v>
-      </c>
-      <c r="G62" t="s">
-        <v>85</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3124,13 +2924,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3150,13 +2948,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>84</v>
-      </c>
-      <c r="G64" t="s">
-        <v>85</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3176,13 +2972,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3202,13 +2996,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>84</v>
-      </c>
-      <c r="G66" t="s">
-        <v>85</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3228,13 +3020,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3254,13 +3044,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>94</v>
-      </c>
-      <c r="G68" t="s">
-        <v>95</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3280,13 +3068,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3306,13 +3092,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>94</v>
-      </c>
-      <c r="G70" t="s">
-        <v>95</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3332,13 +3116,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3360,11 +3142,9 @@
       <c r="F72" t="s">
         <v>11</v>
       </c>
-      <c r="G72" t="s">
-        <v>12</v>
-      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3384,13 +3164,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" t="s">
-        <v>101</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3410,13 +3188,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" t="s">
-        <v>103</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3436,13 +3212,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" t="s">
-        <v>105</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3462,13 +3236,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" t="s">
-        <v>107</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3488,13 +3260,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" t="s">
-        <v>107</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3514,13 +3284,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" t="s">
-        <v>107</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3540,13 +3308,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" t="s">
-        <v>107</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3566,13 +3332,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" t="s">
-        <v>107</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3592,13 +3356,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" t="s">
-        <v>107</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3618,13 +3380,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" t="s">
-        <v>107</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3644,13 +3404,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" t="s">
-        <v>103</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3670,13 +3428,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" t="s">
-        <v>107</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3696,13 +3452,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" t="s">
-        <v>103</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3722,13 +3476,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" t="s">
-        <v>101</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3750,11 +3502,9 @@
       <c r="F87" t="s">
         <v>11</v>
       </c>
-      <c r="G87" t="s">
-        <v>12</v>
-      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3776,11 +3526,9 @@
       <c r="F88" t="s">
         <v>11</v>
       </c>
-      <c r="G88" t="s">
-        <v>12</v>
-      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3802,11 +3550,9 @@
       <c r="F89" t="s">
         <v>11</v>
       </c>
-      <c r="G89" t="s">
-        <v>12</v>
-      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3826,13 +3572,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" t="s">
-        <v>105</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3854,11 +3598,9 @@
       <c r="F91" t="s">
         <v>11</v>
       </c>
-      <c r="G91" t="s">
-        <v>12</v>
-      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3878,13 +3620,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>124</v>
-      </c>
-      <c r="G92" t="s">
-        <v>125</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3904,13 +3644,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>14</v>
-      </c>
-      <c r="G93" t="s">
-        <v>105</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3930,13 +3668,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>124</v>
-      </c>
-      <c r="G94" t="s">
-        <v>125</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3956,13 +3692,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>14</v>
-      </c>
-      <c r="G95" t="s">
-        <v>105</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3982,13 +3716,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>124</v>
-      </c>
-      <c r="G96" t="s">
-        <v>125</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4008,13 +3740,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>131</v>
-      </c>
-      <c r="G97" t="s">
-        <v>132</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4034,13 +3764,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" t="s">
-        <v>107</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4060,13 +3788,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>131</v>
-      </c>
-      <c r="G99" t="s">
-        <v>132</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4086,13 +3812,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>131</v>
-      </c>
-      <c r="G100" t="s">
-        <v>132</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4112,13 +3836,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>14</v>
-      </c>
-      <c r="G101" t="s">
-        <v>105</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4138,13 +3860,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>131</v>
-      </c>
-      <c r="G102" t="s">
-        <v>132</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4164,13 +3884,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>14</v>
-      </c>
-      <c r="G103" t="s">
-        <v>105</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4190,13 +3908,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>131</v>
-      </c>
-      <c r="G104" t="s">
-        <v>132</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4216,13 +3932,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>55</v>
-      </c>
-      <c r="G105" t="s">
-        <v>56</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4242,13 +3956,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>14</v>
-      </c>
-      <c r="G106" t="s">
-        <v>103</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4268,13 +3980,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>55</v>
-      </c>
-      <c r="G107" t="s">
-        <v>56</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4294,13 +4004,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>14</v>
-      </c>
-      <c r="G108" t="s">
-        <v>103</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4320,13 +4028,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>55</v>
-      </c>
-      <c r="G109" t="s">
-        <v>56</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4346,13 +4052,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G110" t="s">
-        <v>103</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4372,13 +4076,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>55</v>
-      </c>
-      <c r="G111" t="s">
-        <v>56</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4398,13 +4100,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>14</v>
-      </c>
-      <c r="G112" t="s">
-        <v>103</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4424,13 +4124,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>55</v>
-      </c>
-      <c r="G113" t="s">
-        <v>56</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4450,13 +4148,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>14</v>
-      </c>
-      <c r="G114" t="s">
-        <v>107</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4476,13 +4172,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>55</v>
-      </c>
-      <c r="G115" t="s">
-        <v>56</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4502,13 +4196,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>55</v>
-      </c>
-      <c r="G116" t="s">
-        <v>56</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4528,13 +4220,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>14</v>
-      </c>
-      <c r="G117" t="s">
-        <v>101</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4554,13 +4244,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>14</v>
-      </c>
-      <c r="G118" t="s">
-        <v>101</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4580,13 +4268,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>14</v>
-      </c>
-      <c r="G119" t="s">
-        <v>103</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4606,13 +4292,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>55</v>
-      </c>
-      <c r="G120" t="s">
-        <v>56</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4632,13 +4316,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>157</v>
-      </c>
-      <c r="G121" t="s">
-        <v>158</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4658,13 +4340,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>14</v>
-      </c>
-      <c r="G122" t="s">
-        <v>107</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4684,13 +4364,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>157</v>
-      </c>
-      <c r="G123" t="s">
-        <v>158</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4710,13 +4388,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>14</v>
-      </c>
-      <c r="G124" t="s">
-        <v>107</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4736,13 +4412,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>157</v>
-      </c>
-      <c r="G125" t="s">
-        <v>158</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4762,13 +4436,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>14</v>
-      </c>
-      <c r="G126" t="s">
-        <v>107</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4788,13 +4460,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>14</v>
-      </c>
-      <c r="G127" t="s">
-        <v>107</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4814,13 +4484,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>14</v>
-      </c>
-      <c r="G128" t="s">
-        <v>107</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4840,13 +4508,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>157</v>
-      </c>
-      <c r="G129" t="s">
-        <v>158</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4866,13 +4532,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>14</v>
-      </c>
-      <c r="G130" t="s">
-        <v>107</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4892,13 +4556,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>157</v>
-      </c>
-      <c r="G131" t="s">
-        <v>158</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4918,13 +4580,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>157</v>
-      </c>
-      <c r="G132" t="s">
-        <v>158</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4944,13 +4604,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>14</v>
-      </c>
-      <c r="G133" t="s">
-        <v>107</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4970,13 +4628,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>157</v>
-      </c>
-      <c r="G134" t="s">
-        <v>158</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4996,13 +4652,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>157</v>
-      </c>
-      <c r="G135" t="s">
-        <v>158</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5022,13 +4676,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>14</v>
-      </c>
-      <c r="G136" t="s">
-        <v>101</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5048,13 +4700,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>157</v>
-      </c>
-      <c r="G137" t="s">
-        <v>158</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5074,13 +4724,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
+        <v>140</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
         <v>157</v>
-      </c>
-      <c r="G138" t="s">
-        <v>158</v>
-      </c>
-      <c r="H138" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5100,13 +4748,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>72</v>
-      </c>
-      <c r="G139" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5126,13 +4772,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>14</v>
-      </c>
-      <c r="G140" t="s">
-        <v>105</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5152,13 +4796,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>72</v>
-      </c>
-      <c r="G141" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5178,13 +4820,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>14</v>
-      </c>
-      <c r="G142" t="s">
-        <v>105</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5204,13 +4844,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>72</v>
-      </c>
-      <c r="G143" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5230,13 +4868,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>14</v>
-      </c>
-      <c r="G144" t="s">
-        <v>105</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5256,13 +4892,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>72</v>
-      </c>
-      <c r="G145" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5282,13 +4916,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>14</v>
-      </c>
-      <c r="G146" t="s">
-        <v>105</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5308,13 +4940,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>14</v>
-      </c>
-      <c r="G147" t="s">
-        <v>184</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5336,11 +4966,9 @@
       <c r="F148" t="s">
         <v>11</v>
       </c>
-      <c r="G148" t="s">
-        <v>12</v>
-      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5360,13 +4988,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>14</v>
-      </c>
-      <c r="G149" t="s">
-        <v>187</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5386,13 +5012,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>14</v>
-      </c>
-      <c r="G150" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5412,13 +5036,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>14</v>
-      </c>
-      <c r="G151" t="s">
-        <v>187</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5438,13 +5060,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>14</v>
-      </c>
-      <c r="G152" t="s">
-        <v>187</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5464,13 +5084,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>14</v>
-      </c>
-      <c r="G153" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5490,13 +5108,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>14</v>
-      </c>
-      <c r="G154" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5516,13 +5132,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>14</v>
-      </c>
-      <c r="G155" t="s">
-        <v>187</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5542,13 +5156,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>14</v>
-      </c>
-      <c r="G156" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5568,13 +5180,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>14</v>
-      </c>
-      <c r="G157" t="s">
-        <v>187</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5594,13 +5204,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>14</v>
-      </c>
-      <c r="G158" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5620,13 +5228,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>14</v>
-      </c>
-      <c r="G159" t="s">
-        <v>187</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5646,13 +5252,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>14</v>
-      </c>
-      <c r="G160" t="s">
-        <v>187</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5672,13 +5276,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>14</v>
-      </c>
-      <c r="G161" t="s">
-        <v>187</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5698,13 +5300,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>14</v>
-      </c>
-      <c r="G162" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5724,13 +5324,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>14</v>
-      </c>
-      <c r="G163" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5750,13 +5348,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>14</v>
-      </c>
-      <c r="G164" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5776,13 +5372,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>14</v>
-      </c>
-      <c r="G165" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5802,13 +5396,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>14</v>
-      </c>
-      <c r="G166" t="s">
-        <v>187</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5828,13 +5420,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>14</v>
-      </c>
-      <c r="G167" t="s">
-        <v>187</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5854,13 +5444,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>208</v>
-      </c>
-      <c r="G168" t="s">
-        <v>209</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5880,13 +5468,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>14</v>
-      </c>
-      <c r="G169" t="s">
-        <v>211</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5906,13 +5492,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>14</v>
-      </c>
-      <c r="G170" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5932,13 +5516,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>14</v>
-      </c>
-      <c r="G171" t="s">
-        <v>211</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5958,13 +5540,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>14</v>
-      </c>
-      <c r="G172" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5984,13 +5564,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>14</v>
-      </c>
-      <c r="G173" t="s">
-        <v>211</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6010,13 +5588,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>14</v>
-      </c>
-      <c r="G174" t="s">
-        <v>187</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6036,13 +5612,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>14</v>
-      </c>
-      <c r="G175" t="s">
-        <v>211</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6062,13 +5636,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>14</v>
-      </c>
-      <c r="G176" t="s">
-        <v>211</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6088,13 +5660,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>14</v>
-      </c>
-      <c r="G177" t="s">
-        <v>187</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6114,13 +5684,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>14</v>
-      </c>
-      <c r="G178" t="s">
-        <v>187</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6140,13 +5708,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>14</v>
-      </c>
-      <c r="G179" t="s">
-        <v>211</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6166,13 +5732,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>14</v>
-      </c>
-      <c r="G180" t="s">
-        <v>187</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6192,13 +5756,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>14</v>
-      </c>
-      <c r="G181" t="s">
-        <v>211</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6218,13 +5780,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>14</v>
-      </c>
-      <c r="G182" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6244,13 +5804,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>14</v>
-      </c>
-      <c r="G183" t="s">
-        <v>211</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6272,11 +5830,9 @@
       <c r="F184" t="s">
         <v>11</v>
       </c>
-      <c r="G184" t="s">
-        <v>12</v>
-      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6296,13 +5852,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>14</v>
-      </c>
-      <c r="G185" t="s">
-        <v>187</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6324,11 +5878,9 @@
       <c r="F186" t="s">
         <v>11</v>
       </c>
-      <c r="G186" t="s">
-        <v>12</v>
-      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6348,13 +5900,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>14</v>
-      </c>
-      <c r="G187" t="s">
-        <v>187</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6376,11 +5926,9 @@
       <c r="F188" t="s">
         <v>11</v>
       </c>
-      <c r="G188" t="s">
-        <v>12</v>
-      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6402,11 +5950,9 @@
       <c r="F189" t="s">
         <v>11</v>
       </c>
-      <c r="G189" t="s">
-        <v>12</v>
-      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6426,13 +5972,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>14</v>
-      </c>
-      <c r="G190" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6452,13 +5996,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>14</v>
-      </c>
-      <c r="G191" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6478,13 +6020,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>14</v>
-      </c>
-      <c r="G192" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6506,11 +6046,9 @@
       <c r="F193" t="s">
         <v>11</v>
       </c>
-      <c r="G193" t="s">
-        <v>12</v>
-      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6530,13 +6068,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>14</v>
-      </c>
-      <c r="G194" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6558,11 +6094,9 @@
       <c r="F195" t="s">
         <v>11</v>
       </c>
-      <c r="G195" t="s">
-        <v>12</v>
-      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6582,13 +6116,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>14</v>
-      </c>
-      <c r="G196" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6610,11 +6142,9 @@
       <c r="F197" t="s">
         <v>11</v>
       </c>
-      <c r="G197" t="s">
-        <v>12</v>
-      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6634,13 +6164,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>14</v>
-      </c>
-      <c r="G198" t="s">
-        <v>240</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6660,13 +6188,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>14</v>
-      </c>
-      <c r="G199" t="s">
-        <v>187</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6686,13 +6212,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>14</v>
-      </c>
-      <c r="G200" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6712,13 +6236,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>14</v>
-      </c>
-      <c r="G201" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6738,13 +6260,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>14</v>
-      </c>
-      <c r="G202" t="s">
-        <v>187</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6764,13 +6284,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>14</v>
-      </c>
-      <c r="G203" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6790,13 +6308,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>14</v>
-      </c>
-      <c r="G204" t="s">
-        <v>240</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6816,13 +6332,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>14</v>
-      </c>
-      <c r="G205" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6842,13 +6356,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>14</v>
-      </c>
-      <c r="G206" t="s">
-        <v>240</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6868,13 +6380,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>14</v>
-      </c>
-      <c r="G207" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6894,13 +6404,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>14</v>
-      </c>
-      <c r="G208" t="s">
-        <v>240</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6920,13 +6428,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>14</v>
-      </c>
-      <c r="G209" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6946,13 +6452,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>14</v>
-      </c>
-      <c r="G210" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6972,13 +6476,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>14</v>
-      </c>
-      <c r="G211" t="s">
-        <v>240</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6998,13 +6500,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>72</v>
-      </c>
-      <c r="G212" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7024,13 +6524,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>14</v>
-      </c>
-      <c r="G213" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7050,13 +6548,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>14</v>
-      </c>
-      <c r="G214" t="s">
-        <v>187</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7076,13 +6572,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>72</v>
-      </c>
-      <c r="G215" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7102,13 +6596,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>14</v>
-      </c>
-      <c r="G216" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7128,13 +6620,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>72</v>
-      </c>
-      <c r="G217" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7154,13 +6644,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>72</v>
-      </c>
-      <c r="G218" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7180,13 +6668,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>14</v>
-      </c>
-      <c r="G219" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7206,13 +6692,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>72</v>
-      </c>
-      <c r="G220" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7232,13 +6716,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>14</v>
-      </c>
-      <c r="G221" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7258,13 +6740,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>72</v>
-      </c>
-      <c r="G222" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7284,13 +6764,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>14</v>
-      </c>
-      <c r="G223" t="s">
-        <v>187</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7310,13 +6788,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>72</v>
-      </c>
-      <c r="G224" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7336,13 +6812,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>55</v>
-      </c>
-      <c r="G225" t="s">
-        <v>56</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7362,13 +6836,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>14</v>
-      </c>
-      <c r="G226" t="s">
-        <v>187</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7388,13 +6860,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>14</v>
-      </c>
-      <c r="G227" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7414,13 +6884,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>55</v>
-      </c>
-      <c r="G228" t="s">
-        <v>56</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7440,13 +6908,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>14</v>
-      </c>
-      <c r="G229" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7466,13 +6932,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>55</v>
-      </c>
-      <c r="G230" t="s">
-        <v>56</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7492,13 +6956,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>55</v>
-      </c>
-      <c r="G231" t="s">
-        <v>56</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7518,13 +6980,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>14</v>
-      </c>
-      <c r="G232" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7544,13 +7004,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>275</v>
-      </c>
-      <c r="G233" t="s">
-        <v>276</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7570,13 +7028,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>14</v>
-      </c>
-      <c r="G234" t="s">
-        <v>187</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7596,13 +7052,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>275</v>
-      </c>
-      <c r="G235" t="s">
-        <v>276</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7622,13 +7076,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>275</v>
-      </c>
-      <c r="G236" t="s">
-        <v>276</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7648,13 +7100,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>14</v>
-      </c>
-      <c r="G237" t="s">
-        <v>187</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7674,13 +7124,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>275</v>
-      </c>
-      <c r="G238" t="s">
-        <v>276</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7700,13 +7148,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>275</v>
-      </c>
-      <c r="G239" t="s">
-        <v>276</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7726,13 +7172,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>14</v>
-      </c>
-      <c r="G240" t="s">
-        <v>187</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7752,13 +7196,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>275</v>
-      </c>
-      <c r="G241" t="s">
-        <v>276</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7778,13 +7220,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>14</v>
-      </c>
-      <c r="G242" t="s">
-        <v>187</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7804,13 +7244,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>275</v>
-      </c>
-      <c r="G243" t="s">
-        <v>276</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7830,13 +7268,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>14</v>
-      </c>
-      <c r="G244" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7856,13 +7292,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>275</v>
-      </c>
-      <c r="G245" t="s">
-        <v>276</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7882,13 +7316,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>14</v>
-      </c>
-      <c r="G246" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7908,13 +7340,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>275</v>
-      </c>
-      <c r="G247" t="s">
-        <v>276</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7934,13 +7364,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>14</v>
-      </c>
-      <c r="G248" t="s">
-        <v>187</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7960,13 +7388,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>14</v>
-      </c>
-      <c r="G249" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7986,13 +7412,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>275</v>
-      </c>
-      <c r="G250" t="s">
-        <v>276</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8012,13 +7436,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>14</v>
-      </c>
-      <c r="G251" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8038,13 +7460,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>14</v>
-      </c>
-      <c r="G252" t="s">
-        <v>187</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8064,13 +7484,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>275</v>
-      </c>
-      <c r="G253" t="s">
-        <v>276</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8090,13 +7508,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>14</v>
-      </c>
-      <c r="G254" t="s">
-        <v>187</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8116,13 +7532,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>14</v>
-      </c>
-      <c r="G255" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8142,13 +7556,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>275</v>
-      </c>
-      <c r="G256" t="s">
-        <v>276</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8168,13 +7580,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>14</v>
-      </c>
-      <c r="G257" t="s">
-        <v>296</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8194,13 +7604,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>14</v>
-      </c>
-      <c r="G258" t="s">
-        <v>187</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8220,13 +7628,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>14</v>
-      </c>
-      <c r="G259" t="s">
-        <v>296</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8246,13 +7652,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>14</v>
-      </c>
-      <c r="G260" t="s">
-        <v>187</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8272,13 +7676,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>14</v>
-      </c>
-      <c r="G261" t="s">
-        <v>296</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8298,13 +7700,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>14</v>
-      </c>
-      <c r="G262" t="s">
-        <v>296</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8324,13 +7724,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>14</v>
-      </c>
-      <c r="G263" t="s">
-        <v>187</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8350,13 +7748,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>14</v>
-      </c>
-      <c r="G264" t="s">
-        <v>296</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8376,13 +7772,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>14</v>
-      </c>
-      <c r="G265" t="s">
-        <v>187</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8402,13 +7796,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>14</v>
-      </c>
-      <c r="G266" t="s">
-        <v>296</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8428,13 +7820,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>14</v>
-      </c>
-      <c r="G267" t="s">
-        <v>187</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8454,13 +7844,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>14</v>
-      </c>
-      <c r="G268" t="s">
-        <v>296</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8480,13 +7868,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>14</v>
-      </c>
-      <c r="G269" t="s">
-        <v>296</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8506,13 +7892,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>14</v>
-      </c>
-      <c r="G270" t="s">
-        <v>296</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8532,13 +7916,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>14</v>
-      </c>
-      <c r="G271" t="s">
-        <v>187</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8558,13 +7940,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>14</v>
-      </c>
-      <c r="G272" t="s">
-        <v>296</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8584,13 +7964,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>14</v>
-      </c>
-      <c r="G273" t="s">
-        <v>296</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8610,13 +7988,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>157</v>
-      </c>
-      <c r="G274" t="s">
-        <v>158</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8636,13 +8012,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>14</v>
-      </c>
-      <c r="G275" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8662,13 +8036,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>157</v>
-      </c>
-      <c r="G276" t="s">
-        <v>158</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8688,13 +8060,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>14</v>
-      </c>
-      <c r="G277" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8714,13 +8084,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>157</v>
-      </c>
-      <c r="G278" t="s">
-        <v>158</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8740,13 +8108,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>14</v>
-      </c>
-      <c r="G279" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8766,13 +8132,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>14</v>
-      </c>
-      <c r="G280" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8792,13 +8156,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>157</v>
-      </c>
-      <c r="G281" t="s">
-        <v>158</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8818,13 +8180,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>14</v>
-      </c>
-      <c r="G282" t="s">
-        <v>187</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8844,13 +8204,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>157</v>
-      </c>
-      <c r="G283" t="s">
-        <v>158</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8870,13 +8228,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>14</v>
-      </c>
-      <c r="G284" t="s">
-        <v>187</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -8896,13 +8252,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>157</v>
-      </c>
-      <c r="G285" t="s">
-        <v>158</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8922,13 +8276,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>14</v>
-      </c>
-      <c r="G286" t="s">
-        <v>187</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -8948,13 +8300,11 @@
         <v>10</v>
       </c>
       <c r="F287" t="s">
-        <v>157</v>
-      </c>
-      <c r="G287" t="s">
-        <v>158</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -8974,13 +8324,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>14</v>
-      </c>
-      <c r="G288" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9000,13 +8348,11 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>157</v>
-      </c>
-      <c r="G289" t="s">
-        <v>158</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9026,13 +8372,11 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>157</v>
-      </c>
-      <c r="G290" t="s">
-        <v>158</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9052,13 +8396,11 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>14</v>
-      </c>
-      <c r="G291" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9078,13 +8420,11 @@
         <v>10</v>
       </c>
       <c r="F292" t="s">
-        <v>157</v>
-      </c>
-      <c r="G292" t="s">
-        <v>158</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9104,13 +8444,11 @@
         <v>10</v>
       </c>
       <c r="F293" t="s">
-        <v>14</v>
-      </c>
-      <c r="G293" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9130,13 +8468,11 @@
         <v>10</v>
       </c>
       <c r="F294" t="s">
-        <v>157</v>
-      </c>
-      <c r="G294" t="s">
-        <v>158</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9156,13 +8492,11 @@
         <v>10</v>
       </c>
       <c r="F295" t="s">
-        <v>14</v>
-      </c>
-      <c r="G295" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9182,13 +8516,11 @@
         <v>10</v>
       </c>
       <c r="F296" t="s">
-        <v>157</v>
-      </c>
-      <c r="G296" t="s">
-        <v>158</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9208,13 +8540,11 @@
         <v>10</v>
       </c>
       <c r="F297" t="s">
-        <v>14</v>
-      </c>
-      <c r="G297" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9234,13 +8564,11 @@
         <v>10</v>
       </c>
       <c r="F298" t="s">
-        <v>14</v>
-      </c>
-      <c r="G298" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9260,13 +8588,11 @@
         <v>10</v>
       </c>
       <c r="F299" t="s">
-        <v>157</v>
-      </c>
-      <c r="G299" t="s">
-        <v>158</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9286,13 +8612,11 @@
         <v>10</v>
       </c>
       <c r="F300" t="s">
-        <v>84</v>
-      </c>
-      <c r="G300" t="s">
-        <v>85</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9312,13 +8636,11 @@
         <v>10</v>
       </c>
       <c r="F301" t="s">
-        <v>14</v>
-      </c>
-      <c r="G301" t="s">
-        <v>187</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9338,13 +8660,11 @@
         <v>10</v>
       </c>
       <c r="F302" t="s">
-        <v>84</v>
-      </c>
-      <c r="G302" t="s">
-        <v>85</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9364,13 +8684,11 @@
         <v>10</v>
       </c>
       <c r="F303" t="s">
-        <v>84</v>
-      </c>
-      <c r="G303" t="s">
-        <v>85</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G303" t="s"/>
       <c r="H303" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9390,13 +8708,11 @@
         <v>10</v>
       </c>
       <c r="F304" t="s">
-        <v>14</v>
-      </c>
-      <c r="G304" t="s">
-        <v>187</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9416,13 +8732,11 @@
         <v>10</v>
       </c>
       <c r="F305" t="s">
-        <v>84</v>
-      </c>
-      <c r="G305" t="s">
-        <v>85</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9442,13 +8756,11 @@
         <v>10</v>
       </c>
       <c r="F306" t="s">
-        <v>14</v>
-      </c>
-      <c r="G306" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G306" t="s"/>
       <c r="H306" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9468,13 +8780,11 @@
         <v>10</v>
       </c>
       <c r="F307" t="s">
-        <v>84</v>
-      </c>
-      <c r="G307" t="s">
-        <v>85</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G307" t="s"/>
       <c r="H307" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9494,13 +8804,11 @@
         <v>10</v>
       </c>
       <c r="F308" t="s">
-        <v>131</v>
-      </c>
-      <c r="G308" t="s">
-        <v>132</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9520,13 +8828,11 @@
         <v>10</v>
       </c>
       <c r="F309" t="s">
-        <v>14</v>
-      </c>
-      <c r="G309" t="s">
-        <v>187</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G309" t="s"/>
       <c r="H309" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9546,13 +8852,11 @@
         <v>10</v>
       </c>
       <c r="F310" t="s">
-        <v>14</v>
-      </c>
-      <c r="G310" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G310" t="s"/>
       <c r="H310" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9572,13 +8876,11 @@
         <v>10</v>
       </c>
       <c r="F311" t="s">
-        <v>131</v>
-      </c>
-      <c r="G311" t="s">
-        <v>132</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9598,13 +8900,11 @@
         <v>10</v>
       </c>
       <c r="F312" t="s">
-        <v>14</v>
-      </c>
-      <c r="G312" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G312" t="s"/>
       <c r="H312" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9624,13 +8924,11 @@
         <v>10</v>
       </c>
       <c r="F313" t="s">
-        <v>14</v>
-      </c>
-      <c r="G313" t="s">
-        <v>187</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G313" t="s"/>
       <c r="H313" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9650,13 +8948,11 @@
         <v>10</v>
       </c>
       <c r="F314" t="s">
-        <v>131</v>
-      </c>
-      <c r="G314" t="s">
-        <v>132</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G314" t="s"/>
       <c r="H314" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -9676,13 +8972,11 @@
         <v>10</v>
       </c>
       <c r="F315" t="s">
-        <v>14</v>
-      </c>
-      <c r="G315" t="s">
-        <v>187</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G315" t="s"/>
       <c r="H315" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -9702,13 +8996,11 @@
         <v>10</v>
       </c>
       <c r="F316" t="s">
-        <v>131</v>
-      </c>
-      <c r="G316" t="s">
-        <v>132</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G316" t="s"/>
       <c r="H316" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -9728,13 +9020,11 @@
         <v>10</v>
       </c>
       <c r="F317" t="s">
-        <v>14</v>
-      </c>
-      <c r="G317" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G317" t="s"/>
       <c r="H317" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -9754,13 +9044,11 @@
         <v>10</v>
       </c>
       <c r="F318" t="s">
-        <v>131</v>
-      </c>
-      <c r="G318" t="s">
-        <v>132</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G318" t="s"/>
       <c r="H318" t="s">
-        <v>352</v>
+        <v>326</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -9780,13 +9068,11 @@
         <v>10</v>
       </c>
       <c r="F319" t="s">
-        <v>14</v>
-      </c>
-      <c r="G319" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G319" t="s"/>
       <c r="H319" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -9806,13 +9092,11 @@
         <v>10</v>
       </c>
       <c r="F320" t="s">
-        <v>14</v>
-      </c>
-      <c r="G320" t="s">
-        <v>187</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G320" t="s"/>
       <c r="H320" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -9832,13 +9116,11 @@
         <v>10</v>
       </c>
       <c r="F321" t="s">
-        <v>131</v>
-      </c>
-      <c r="G321" t="s">
-        <v>132</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G321" t="s"/>
       <c r="H321" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -9858,13 +9140,11 @@
         <v>10</v>
       </c>
       <c r="F322" t="s">
-        <v>14</v>
-      </c>
-      <c r="G322" t="s">
-        <v>187</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G322" t="s"/>
       <c r="H322" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -9884,13 +9164,11 @@
         <v>10</v>
       </c>
       <c r="F323" t="s">
-        <v>131</v>
-      </c>
-      <c r="G323" t="s">
-        <v>132</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G323" t="s"/>
       <c r="H323" t="s">
-        <v>357</v>
+        <v>331</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -9910,13 +9188,11 @@
         <v>10</v>
       </c>
       <c r="F324" t="s">
-        <v>94</v>
-      </c>
-      <c r="G324" t="s">
-        <v>95</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G324" t="s"/>
       <c r="H324" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -9936,13 +9212,11 @@
         <v>10</v>
       </c>
       <c r="F325" t="s">
-        <v>94</v>
-      </c>
-      <c r="G325" t="s">
-        <v>95</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G325" t="s"/>
       <c r="H325" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -9962,13 +9236,11 @@
         <v>10</v>
       </c>
       <c r="F326" t="s">
-        <v>14</v>
-      </c>
-      <c r="G326" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G326" t="s"/>
       <c r="H326" t="s">
-        <v>360</v>
+        <v>334</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -9988,13 +9260,11 @@
         <v>10</v>
       </c>
       <c r="F327" t="s">
-        <v>94</v>
-      </c>
-      <c r="G327" t="s">
-        <v>95</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G327" t="s"/>
       <c r="H327" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10014,13 +9284,11 @@
         <v>10</v>
       </c>
       <c r="F328" t="s">
-        <v>94</v>
-      </c>
-      <c r="G328" t="s">
-        <v>95</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G328" t="s"/>
       <c r="H328" t="s">
-        <v>362</v>
+        <v>336</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10040,13 +9308,11 @@
         <v>10</v>
       </c>
       <c r="F329" t="s">
-        <v>14</v>
-      </c>
-      <c r="G329" t="s">
-        <v>187</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G329" t="s"/>
       <c r="H329" t="s">
-        <v>363</v>
+        <v>337</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10066,13 +9332,11 @@
         <v>10</v>
       </c>
       <c r="F330" t="s">
-        <v>94</v>
-      </c>
-      <c r="G330" t="s">
-        <v>95</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G330" t="s"/>
       <c r="H330" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10092,13 +9356,11 @@
         <v>10</v>
       </c>
       <c r="F331" t="s">
-        <v>14</v>
-      </c>
-      <c r="G331" t="s">
-        <v>187</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G331" t="s"/>
       <c r="H331" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10118,13 +9380,11 @@
         <v>10</v>
       </c>
       <c r="F332" t="s">
-        <v>94</v>
-      </c>
-      <c r="G332" t="s">
-        <v>95</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G332" t="s"/>
       <c r="H332" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10144,13 +9404,11 @@
         <v>10</v>
       </c>
       <c r="F333" t="s">
-        <v>36</v>
-      </c>
-      <c r="G333" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G333" t="s"/>
       <c r="H333" t="s">
-        <v>367</v>
+        <v>341</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10170,13 +9428,11 @@
         <v>10</v>
       </c>
       <c r="F334" t="s">
-        <v>14</v>
-      </c>
-      <c r="G334" t="s">
-        <v>187</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G334" t="s"/>
       <c r="H334" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10196,13 +9452,11 @@
         <v>10</v>
       </c>
       <c r="F335" t="s">
-        <v>14</v>
-      </c>
-      <c r="G335" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G335" t="s"/>
       <c r="H335" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10222,13 +9476,11 @@
         <v>10</v>
       </c>
       <c r="F336" t="s">
-        <v>36</v>
-      </c>
-      <c r="G336" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G336" t="s"/>
       <c r="H336" t="s">
-        <v>370</v>
+        <v>344</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10248,13 +9500,11 @@
         <v>10</v>
       </c>
       <c r="F337" t="s">
-        <v>14</v>
-      </c>
-      <c r="G337" t="s">
-        <v>187</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G337" t="s"/>
       <c r="H337" t="s">
-        <v>371</v>
+        <v>345</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10274,13 +9524,11 @@
         <v>10</v>
       </c>
       <c r="F338" t="s">
-        <v>14</v>
-      </c>
-      <c r="G338" t="s">
-        <v>187</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G338" t="s"/>
       <c r="H338" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10300,13 +9548,11 @@
         <v>10</v>
       </c>
       <c r="F339" t="s">
-        <v>14</v>
-      </c>
-      <c r="G339" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G339" t="s"/>
       <c r="H339" t="s">
-        <v>373</v>
+        <v>347</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10326,13 +9572,11 @@
         <v>10</v>
       </c>
       <c r="F340" t="s">
-        <v>14</v>
-      </c>
-      <c r="G340" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G340" t="s"/>
       <c r="H340" t="s">
-        <v>374</v>
+        <v>348</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10352,13 +9596,11 @@
         <v>10</v>
       </c>
       <c r="F341" t="s">
-        <v>14</v>
-      </c>
-      <c r="G341" t="s">
-        <v>187</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G341" t="s"/>
       <c r="H341" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10378,13 +9620,11 @@
         <v>10</v>
       </c>
       <c r="F342" t="s">
-        <v>14</v>
-      </c>
-      <c r="G342" t="s">
-        <v>189</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G342" t="s"/>
       <c r="H342" t="s">
-        <v>375</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
